--- a/output/fit_clients/fit_round_59.xlsx
+++ b/output/fit_clients/fit_round_59.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>7277963965.915177</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.004553156396797279</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>13</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.072399916957813</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9716297506735998</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.072399916957813</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>5974476402.639439</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.003810765042228002</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>14</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.893868744096162</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.630764203251345</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.114410886608765</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.630764203251345</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>4938641641.89282</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003403433212362528</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.412101903005451</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9926948963551115</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-3.412101903005451</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>3714439474.688979</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.00521439801691111</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>15</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.693320923543925</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8583112232073016</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.693320923543925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>6623967186.909205</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.001818363735816465</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>18</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.449988696239617</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8863378291183687</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.449988696239617</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>6214139823.25159</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.0009524627651253363</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>14</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.62540753424049</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9342946524149346</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.62540753424049</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>7141653458.189866</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002599219867676281</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>8</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.36352059618326</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9817126200275087</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.36352059618326</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>5228755354.385905</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.00521944795801013</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>7</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.548868976489777</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.945502440584268</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-3.548868976489777</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3178740749.048093</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.004553993817378128</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>11</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.944262299486777</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9834230691897982</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.944262299486777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>4327876134.953076</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001102746996439839</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>15</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.6337620663960398</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.5176933003355</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.775740123380967</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.5176933003355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>9234209539.927444</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001982439213681981</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>7</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.773088316433218</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.041532317174584</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-3.773088316433218</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>4646119528.991044</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.004463869376935267</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>15</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.540919639030047</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.047207750206187</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.540919639030047</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>7310233606.167808</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.003229416768734091</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>10</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.901276135318532</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.100404848156036</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.105327857206466</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-3.100404848156036</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>6360742874.469454</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.003668011399741294</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.370139298321721</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.01576265003155</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.370139298321721</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>6610696380.779172</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.004235113079185442</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>10</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.178540749631578</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9426890973555015</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.178540749631578</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>6857687937.130319</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002222198099408013</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>9</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950106</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.187055283308871</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9741554622706396</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-3.187055283308871</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>7036314296.068882</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001136267768694548</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>8</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3.407119171583282</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9706060886853458</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-3.407119171583282</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>4737285358.454267</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.001550294074255376</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>12</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.860686805527477</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.9408088613994231</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.860686805527477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>5936469358.447964</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001418031371796893</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>7</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.618011735646827</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8727574592569949</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3.618011735646827</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>8013821996.246489</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.005864101674990866</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.822253329098027</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8768270928043533</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.822253329098027</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>3944930067.121559</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.005719155053445714</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>15</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.6185095932214258</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.676361659629862</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.7728866506875326</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-2.676361659629862</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>6414609008.46594</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.00154266848985437</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>18</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.299693383998494</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8690442237462764</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.299693383998494</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>8203318962.767247</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.004420460897991182</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>10</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.216498941010618</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.023206823398312</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-3.216498941010618</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>5285131825.055457</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.004078375347562734</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>9</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.9876263325761274</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.328163874530606</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.211977872624733</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.328163874530606</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>4934813295.510489</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001446307807418947</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>14</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.48806502095744</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.8466317837454661</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.48806502095744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>8003524481.514254</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.002553915328183968</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>13</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.773833905511813</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9524717535003777</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.773833905511813</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>6461830519.081768</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.005436044509692598</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>11</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.000162974605435</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.9336560296653995</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-3.000162974605435</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>7314766726.572988</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001461350672332218</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>10</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.2986690836885568</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.214764793991394</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.6064096084780988</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-3.214764793991394</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>7539516373.743227</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003606421406411047</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>11</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.843505010702674</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.9278317936277309</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.843505010702674</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>7159315660.509854</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002120934990939478</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>14</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.729717288940431</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9829270064060949</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.729717288940431</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>5162953889.974016</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001387176774384736</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>9</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590732</v>
-      </c>
-      <c r="L32" t="n">
-        <v>3.554911824672934</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9830186446931166</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-3.554911824672934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>7946768321.5229</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.003142521141884486</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>9</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.764633860946199</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.361907413741675</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.9553754838180089</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.361907413741675</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>7537190695.51584</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.005131747459505418</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>12</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.6588281589722342</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="L34" t="n">
-        <v>3.001678146060637</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7678005463088328</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-3.001678146060637</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>6923495263.107672</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.001702290462046089</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>11</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.967280348197425</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9577311253581555</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-2.967280348197425</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>4937553929.16989</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.00379234653339782</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>10</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.10614404106685</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.052457111928013</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.10614404106685</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>6649382554.209304</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.004278154416542054</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>13</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.923131753720004</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.039552958074655</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-2.923131753720004</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>4442459141.092989</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.003450863357717444</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>12</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.772757817954936</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.9315441602764255</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.772757817954936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>6182464242.905365</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.003185392124940171</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>11</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542555</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.167856152876021</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8810824197805972</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.167856152876021</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>6198194775.922741</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.003697909709200945</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>11</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3.163668984614812</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.017024949886744</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-3.163668984614812</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>5830400083.58001</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001002871863600916</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>10</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.130525666790652</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9518453264136451</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.130525666790652</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>5299025621.960365</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.003862265063037463</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>12</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.75236223679627</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.004349142767831</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.75236223679627</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>5936100482.0228</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.00374266224213066</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>11</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>3.093006036276795</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9509147254737792</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-3.093006036276795</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>7519745599.219096</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001508089785497317</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>14</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900504</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.776580296498069</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9606136174685568</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.776580296498069</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>4792586490.331919</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001341120671589923</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>11</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.256170027453592</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9856255023082167</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.256170027453592</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>11345357110.16594</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.004187429546144804</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>11</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.99848242054892</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8611693492927487</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.99848242054892</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>8535960616.345922</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002938763237987771</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>13</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.9093537737545029</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.666938745589097</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.104109905510257</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-2.666938745589097</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>8149869305.039646</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.003726109213974956</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>8</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.502957857190503</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9806076276617751</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-3.502957857190503</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>5055977859.018074</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.005030547315509402</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>14</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.788542333334336</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8951820954800479</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.788542333334336</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>6073157223.17847</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003112428796777594</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>4</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>4.88297118547222</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.069724460278188</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-4.88297118547222</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>4589317882.072862</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.005687425178291617</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>15</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.3586235241638832</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.64033535165491</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.6223423329446567</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.64033535165491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>6146828208.357649</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001432203282250839</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>11</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.115935051342573</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.905986962264338</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8810824197805972</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.905986962264338</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>6786707043.395141</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.0026902470325777</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>10</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3.124588700949607</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9609143128073734</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-3.124588700949607</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>5460332235.67627</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.004102115972287765</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>14</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.576444377328629</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1.119830366967895</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.576444377328629</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>5952625568.533083</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.003429937720313317</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>14</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269525</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.647510740234971</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.9214416203483062</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.647510740234971</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>5000394887.512082</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002410375727119554</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>10</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3.145247479184834</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9484220994562682</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-3.145247479184834</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>7730694293.064839</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003031049232634459</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>13</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.707273044966282</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8386761265774222</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.707273044966282</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>6727184773.372034</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002184166546499419</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>15</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.424456128491122</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.836562146349963</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.424456128491122</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>5761272886.352987</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.004147794245280921</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>11</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.935685981676181</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.9243196365911466</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.935685981676181</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>3864602323.713886</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003061754305591019</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>13</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677434</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.62785627553145</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8502310187980073</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.62785627553145</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>4703400699.748319</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.004328904225600577</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>17</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.099485821147814</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9498883876216208</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-3.099485821147814</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>5045894974.5652</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.002719328522762079</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>12</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.8423235890440696</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.435853252974558</v>
-      </c>
-      <c r="M62" t="n">
-        <v>1.038059220468183</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.435853252974558</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>7640810320.389902</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.006011441130182694</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>15</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.53477665454459</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.9263507402067489</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.53477665454459</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>3574839757.441003</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.004590277997513134</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>9</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>3.227283754906947</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9320675703173809</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-3.227283754906947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>7646953913.913193</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.004457189461073389</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>12</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>3.305168672877387</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.035180814384756</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-3.305168672877387</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>5481550789.572732</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.00371760650289568</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>10</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702345</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.145836131799021</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.9461330672539637</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.145836131799021</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>5862401353.599821</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.004013825198133949</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>7</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>3.768901215025043</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9328038525487425</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-3.768901215025043</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>6449782685.426751</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.001908339264216532</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>14</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.523180601394785</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7458736884883886</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.523180601394785</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>4391981695.038616</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001273726401212697</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>7</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.753696859819483</v>
-      </c>
-      <c r="M69" t="n">
-        <v>1.021562988148777</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.753696859819483</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>7914832782.801479</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.002518808862060744</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>8</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.8627175288261066</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>4.27162586342823</v>
-      </c>
-      <c r="M70" t="n">
-        <v>1.082004893429629</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-4.27162586342823</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>4553377750.465815</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.004018164705807899</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>9</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.7305800352124623</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>3.220930935037131</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8854730535116808</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-3.220930935037131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>5605069916.578319</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.002473812863407823</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>13</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.746689979376893</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.070383491757229</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.746689979376893</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>5987719573.299004</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.0009156589023489189</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>9</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3.249205288402357</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9907088866382692</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-3.249205288402357</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>4419512756.342649</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.003870522059036459</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>10</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>3.045692269798945</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.9134845439044958</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-3.045692269798945</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>6694087533.155888</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003160082492433255</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>13</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.832890940491034</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8876616766037205</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.832890940491034</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>5987875595.44028</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.003020253207054968</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>15</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.661791378831168</v>
-      </c>
-      <c r="M76" t="n">
-        <v>-0.5042194840896107</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.661791378831168</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>5524404082.620673</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.005053490141091767</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>8</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.07121193005226252</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.494543435351326</v>
-      </c>
-      <c r="M77" t="n">
-        <v>-0.09797158828691115</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-3.494543435351326</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>6777169501.506382</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.003310900401997401</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>15</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.609226697336165</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.920480281927585</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.609226697336165</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>5343196432.251364</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.001846251979315491</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>6</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>3.884210418362224</v>
-      </c>
-      <c r="M79" t="n">
-        <v>1.009624416470913</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-3.884210418362224</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>7539830894.288548</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002621960168437474</v>
       </c>
       <c r="G80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>14</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.07980071007788282</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330155</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.953647184041034</v>
-      </c>
-      <c r="M80" t="n">
-        <v>-0.301026029372639</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-2.953647184041034</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>5812618996.561362</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.005241881129689734</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>8</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289813</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.381108091257212</v>
-      </c>
-      <c r="M81" t="n">
-        <v>1.001394002574438</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.381108091257212</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>5544023333.89749</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.003634804490410268</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>13</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.828891501873586</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.9200481901602197</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-2.828891501873586</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>7397865220.548365</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.003608169038243394</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>18</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.294506213498952</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.8307751777960977</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.294506213498952</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>6219944126.765002</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.003603509453831891</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>15</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027591</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.545819458092036</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9675671832090773</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.545819458092036</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>4705321848.762362</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003108322326840933</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>16</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.437295896093773</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.9195179384464779</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.437295896093773</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>6283600779.897794</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002446746761950474</v>
       </c>
       <c r="G86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>12</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307497</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3.118206462794619</v>
-      </c>
-      <c r="M86" t="n">
-        <v>1.020412874267467</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-3.118206462794619</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>3340666830.368334</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001262117929399465</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>19</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.291299665970364</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9728567232615569</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.291299665970364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>7343695495.162773</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.003867262060011762</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>11</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.906752953968144</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8761465829843477</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.906752953968144</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>5388929748.219383</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.005314605827173392</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>11</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.078884928697588</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9745635648186907</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.078884928697588</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>7525570453.678059</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.002498585409516184</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
         <v>11</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.9028054021971</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9723360756890964</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.9028054021971</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>4962467970.646891</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003771719925890054</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>8</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719719</v>
-      </c>
-      <c r="L91" t="n">
-        <v>3.322207669185428</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8477831346709487</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-3.322207669185428</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>5418376603.254435</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.002781172521841496</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>10</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.183143422341859</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.076896627293241</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.183143422341859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>7228727939.612649</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001772527742049582</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>13</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.2005867751590511</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.767061254973727</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9456174426580541</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.767061254973727</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>6961251112.562385</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001534244462101249</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>7</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023206</v>
-      </c>
-      <c r="L94" t="n">
-        <v>3.733571827532867</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.05805630757734</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-3.733571827532867</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>7260499716.73271</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002165591839806964</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>9</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.933708019772032</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.201831842610452</v>
-      </c>
-      <c r="M95" t="n">
-        <v>1.161823575552259</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.201831842610452</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>6080594001.574253</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.003127591144224059</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
         <v>16</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.547536292504706</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.9405017380077717</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.547536292504706</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>6</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>5271167919.082109</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.004220127391277579</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>12</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.9995111412809383</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>2.995704399188366</v>
-      </c>
-      <c r="M97" t="n">
-        <v>1.162998536220818</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-2.995704399188366</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>6152116938.395916</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.003398975419394297</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>10</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.926231131028787</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8991294819093368</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-2.926231131028787</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>2995582098.764758</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.00388835935290432</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>13</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.798412152004556</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.9305932582242818</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.798412152004556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>4994982746.901972</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002947423452955617</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>9</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.7153949866453417</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.199633457315859</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.9085294861418933</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.199633457315859</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>5181636413.144749</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.00134685292593726</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>14</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.6630199607022379</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.941112689656041</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.9036201781267374</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.941112689656041</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_59.xlsx
+++ b/output/fit_clients/fit_round_59.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>7277963965.915177</v>
+        <v>1772462789.734293</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004553156396797279</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>15</v>
+        <v>0.08341411236468954</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.02764817271091313</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>886231359.7675047</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>5974476402.639439</v>
+        <v>1980119757.92452</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003810765042228002</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>13</v>
+        <v>0.164786083152859</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03043761098988857</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>990059915.8227862</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4938641641.89282</v>
+        <v>3208565341.424731</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003403433212362528</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13</v>
+        <v>0.1042321950428734</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.02568516978460066</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>21</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1604282628.690583</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3714439474.688979</v>
+        <v>2712040396.374331</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00521439801691111</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.07819799410128306</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04606113074791319</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>23</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1356020286.981858</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>6623967186.909205</v>
+        <v>1738232310.05897</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001818363735816465</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>13</v>
+        <v>0.1337789896788541</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.04829771645616603</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>869116212.8475885</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>6214139823.25159</v>
+        <v>2253090179.263709</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0009524627651253363</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>17</v>
+        <v>0.08998698205295518</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04937009001114696</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>19</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1126545126.29706</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>7141653458.189866</v>
+        <v>3808364623.421891</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002599219867676281</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>15</v>
+        <v>0.213774804561629</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.03126681735919293</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>19</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1904182451.729231</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>5228755354.385905</v>
+        <v>1450948005.957709</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00521944795801013</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>19</v>
+        <v>0.1378474446421616</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02279524947416166</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>725474105.6326004</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3178740749.048093</v>
+        <v>5503164381.340559</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004553993817378128</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1995345915468979</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.03578066527584858</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>25</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2751582328.804399</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4327876134.953076</v>
+        <v>2708765052.183104</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001102746996439839</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.185505484405778</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0423503474445141</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>26</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1354382448.609212</v>
       </c>
     </row>
     <row r="12">
@@ -763,19 +833,25 @@
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>9234209539.927444</v>
+        <v>2208853844.949783</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001982439213681981</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>17</v>
+        <v>0.1600531783443783</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.05254955161878193</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>20</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1104426867.930506</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4646119528.991044</v>
+        <v>4241195062.179216</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004463869376935267</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>12</v>
+        <v>0.07294440053083172</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02705608926707516</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>20</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2120597573.653448</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>7310233606.167808</v>
+        <v>2730184045.566397</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003229416768734091</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>13</v>
+        <v>0.147195129779478</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03129941831026889</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>19</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1365092076.653627</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>6360742874.469454</v>
+        <v>1158334082.237912</v>
       </c>
       <c r="F15" t="n">
-        <v>0.003668011399741294</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>16</v>
+        <v>0.07547751412844382</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.04158983045183597</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>579167049.0498534</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>6610696380.779172</v>
+        <v>2794439969.890028</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004235113079185442</v>
-      </c>
-      <c r="G16" t="b">
+        <v>0.07928015381843453</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.04020214815360669</v>
+      </c>
+      <c r="H16" t="b">
         <v>1</v>
       </c>
-      <c r="H16" t="n">
-        <v>18</v>
+      <c r="I16" t="n">
+        <v>9</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1397219989.338968</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>6857687937.130319</v>
+        <v>3308015259.881273</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002222198099408013</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>13</v>
+        <v>0.1648195048811266</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.05216871101737576</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>17</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1654007698.620882</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>7036314296.068882</v>
+        <v>3023147195.72738</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001136267768694548</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>16</v>
+        <v>0.1528812695198288</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.03350122491485284</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>19</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1511573626.364334</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>4737285358.454267</v>
+        <v>926731485.6230267</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001550294074255376</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1785663430340436</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02536331029861429</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>463365754.1124845</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>5936469358.447964</v>
+        <v>2358651738.971727</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001418031371796893</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
+        <v>0.1589072279487675</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02837828113563143</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>6</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1179325857.522456</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>8013821996.246489</v>
+        <v>1898295590.900866</v>
       </c>
       <c r="F21" t="n">
-        <v>0.005864101674990866</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>11</v>
+        <v>0.08632275108960097</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03136979871490172</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>949147840.9809977</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3944930067.121559</v>
+        <v>3985121649.288157</v>
       </c>
       <c r="F22" t="n">
-        <v>0.005719155053445714</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
+        <v>0.1219763529899266</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.05318137995328945</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>16</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1992560827.065235</v>
       </c>
     </row>
     <row r="23">
@@ -1071,19 +1207,25 @@
         <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>6414609008.46594</v>
+        <v>1494778000.659531</v>
       </c>
       <c r="F23" t="n">
-        <v>0.00154266848985437</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>11</v>
+        <v>0.1274454079173361</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04981331122023223</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>747388987.0368913</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>8203318962.767247</v>
+        <v>3820338259.566181</v>
       </c>
       <c r="F24" t="n">
-        <v>0.004420460897991182</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>15</v>
+        <v>0.09512257603770072</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02942243820420583</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>17</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1910169109.700437</v>
       </c>
     </row>
     <row r="25">
@@ -1127,19 +1275,25 @@
         <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>5285131825.055457</v>
+        <v>1292592823.1364</v>
       </c>
       <c r="F25" t="n">
-        <v>0.004078375347562734</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>13</v>
+        <v>0.08615652252381537</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02739271930055115</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>646296408.1207899</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>4934813295.510489</v>
+        <v>1302575066.84726</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001446307807418947</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.09142330012414759</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03081992309061997</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>651287579.450124</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>8003524481.514254</v>
+        <v>3351996804.950607</v>
       </c>
       <c r="F27" t="n">
-        <v>0.002553915328183968</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="n">
-        <v>15</v>
+        <v>0.1104385915210378</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02251177352819551</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>14</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1675998444.69628</v>
       </c>
     </row>
     <row r="28">
@@ -1211,19 +1377,25 @@
         <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>6461830519.081768</v>
+        <v>3513512106.300639</v>
       </c>
       <c r="F28" t="n">
-        <v>0.005436044509692598</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>15</v>
+        <v>0.1019857493272932</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04976042781901437</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>19</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1756756108.862113</v>
       </c>
     </row>
     <row r="29">
@@ -1239,19 +1411,25 @@
         <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>7314766726.572988</v>
+        <v>4508565410.36243</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001461350672332218</v>
-      </c>
-      <c r="G29" t="b">
+        <v>0.09528152350957038</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.03047738890841756</v>
+      </c>
+      <c r="H29" t="b">
         <v>1</v>
       </c>
-      <c r="H29" t="n">
-        <v>15</v>
+      <c r="I29" t="n">
+        <v>26</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2254282686.657673</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>7539516373.743227</v>
+        <v>2339667919.713552</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003606421406411047</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>19</v>
+        <v>0.09974732105677975</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03266276371759098</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1169834035.916035</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>7159315660.509854</v>
+        <v>1354269224.371292</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002120934990939478</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>12</v>
+        <v>0.09632704731746532</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.03221702247868957</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>677134527.2408968</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>5162953889.974016</v>
+        <v>1598523985.731284</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001387176774384736</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.1070399013831983</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03031073529708591</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>799262081.4749495</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>7946768321.5229</v>
+        <v>2538546565.91751</v>
       </c>
       <c r="F33" t="n">
-        <v>0.003142521141884486</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" t="n">
-        <v>13</v>
+        <v>0.1594703556312655</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.05154818344570421</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>17</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1269273317.764097</v>
       </c>
     </row>
     <row r="34">
@@ -1379,19 +1581,25 @@
         <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>7537190695.51584</v>
+        <v>1311745049.458645</v>
       </c>
       <c r="F34" t="n">
-        <v>0.005131747459505418</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>18</v>
+        <v>0.09345830884980841</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02681851889898489</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>655872511.3110359</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>6923495263.107672</v>
+        <v>1103997491.339892</v>
       </c>
       <c r="F35" t="n">
-        <v>0.001702290462046089</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>15</v>
+        <v>0.08949329479557437</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03576722326432524</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>551998741.3235612</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>4937553929.16989</v>
+        <v>2899627538.856098</v>
       </c>
       <c r="F36" t="n">
-        <v>0.00379234653339782</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>17</v>
+        <v>0.1218840945170694</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02358606138405991</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>15</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1449813759.274348</v>
       </c>
     </row>
     <row r="37">
@@ -1463,19 +1683,25 @@
         <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>6649382554.209304</v>
+        <v>2037829923.590233</v>
       </c>
       <c r="F37" t="n">
-        <v>0.004278154416542054</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" t="n">
-        <v>15</v>
+        <v>0.07722047688350857</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.04040187418489126</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>16</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1018914994.156769</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>4442459141.092989</v>
+        <v>1415564789.051041</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003450863357717444</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.1028043791564874</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03525257585464277</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>707782455.5674598</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>6182464242.905365</v>
+        <v>1573327443.53381</v>
       </c>
       <c r="F39" t="n">
-        <v>0.003185392124940171</v>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" t="n">
-        <v>7</v>
+        <v>0.1451177541065769</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02728647594687028</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>786663780.9683582</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>6198194775.922741</v>
+        <v>1686867868.588671</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003697909709200945</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="n">
-        <v>16</v>
+        <v>0.1261248675877861</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.06000925269983971</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>843433853.5860764</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>5830400083.58001</v>
+        <v>2359679215.06185</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001002871863600916</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>17</v>
+        <v>0.1162226570338364</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0430937974472778</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>16</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1179839646.462604</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>5299025621.960365</v>
+        <v>3993374163.982792</v>
       </c>
       <c r="F42" t="n">
-        <v>0.003862265063037463</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>14</v>
+        <v>0.121395974246161</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03825260279137824</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>20</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1996687110.711206</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>5936100482.0228</v>
+        <v>2655254079.667884</v>
       </c>
       <c r="F43" t="n">
-        <v>0.00374266224213066</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>15</v>
+        <v>0.126990153918625</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02392150616918719</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>19</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1327627072.778126</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>7519745599.219096</v>
+        <v>2189050168.93321</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001508089785497317</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>16</v>
+        <v>0.08418355942473593</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.03196154140656338</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1094525228.397871</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>4792586490.331919</v>
+        <v>1613481538.325683</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001341120671589923</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1217139873998587</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.05425785008519485</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>806740721.0021652</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>11345357110.16594</v>
+        <v>4906437099.762856</v>
       </c>
       <c r="F46" t="n">
-        <v>0.004187429546144804</v>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" t="n">
-        <v>9</v>
+        <v>0.140127369925118</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.05839020219933606</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>21</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2453218571.191144</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>8535960616.345922</v>
+        <v>4412565729.52497</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002938763237987771</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>9</v>
+        <v>0.156339181322259</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.05816814784215734</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>16</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2206282887.194852</v>
       </c>
     </row>
     <row r="48">
@@ -1771,19 +2057,25 @@
         <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>8149869305.039646</v>
+        <v>3975976186.15032</v>
       </c>
       <c r="F48" t="n">
-        <v>0.003726109213974956</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>11</v>
+        <v>0.07881263779708558</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.0287690021872488</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>20</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1987988128.716085</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>5055977859.018074</v>
+        <v>1566609914.587843</v>
       </c>
       <c r="F49" t="n">
-        <v>0.005030547315509402</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.1627261753128287</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03954995800445249</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>783304978.8332725</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>6073157223.17847</v>
+        <v>3047723386.692976</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003112428796777594</v>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="n">
-        <v>17</v>
+        <v>0.1329070783961353</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.03812789441546054</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>20</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1523861749.675105</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>4589317882.072862</v>
+        <v>1428945190.32662</v>
       </c>
       <c r="F51" t="n">
-        <v>0.005687425178291617</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1966903398825967</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.03829412852466435</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>714472609.5058801</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
+        <v>2</v>
+      </c>
+      <c r="D52" t="n">
+        <v>565</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3570886490.207969</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.08850325030031567</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.03927778250139013</v>
+      </c>
+      <c r="H52" t="b">
         <v>1</v>
       </c>
-      <c r="D52" t="n">
-        <v>497</v>
-      </c>
-      <c r="E52" t="n">
-        <v>6146828208.357649</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.001432203282250839</v>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="n">
-        <v>14</v>
+      <c r="I52" t="n">
+        <v>24</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1785443326.71951</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>6786707043.395141</v>
+        <v>2680701614.723661</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0026902470325777</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>11</v>
+        <v>0.1276399053224482</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02927678591237895</v>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>17</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1340350861.736335</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>5460332235.67627</v>
+        <v>3020946189.456912</v>
       </c>
       <c r="F54" t="n">
-        <v>0.004102115972287765</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>16</v>
+        <v>0.1427940354432963</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.04533300005292632</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>19</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1510473081.849285</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>5952625568.533083</v>
+        <v>4212642033.086597</v>
       </c>
       <c r="F55" t="n">
-        <v>0.003429937720313317</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>19</v>
+        <v>0.1769299539995094</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.03123965064951134</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>16</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2106321000.707287</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>5000394887.512082</v>
+        <v>1365146186.347704</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002410375727119554</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>9</v>
+        <v>0.1401285645762922</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.05115201868096177</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>682573155.2890869</v>
       </c>
     </row>
     <row r="57">
@@ -2023,19 +2363,25 @@
         <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>7730694293.064839</v>
+        <v>3436454041.348379</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003031049232634459</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>14</v>
+        <v>0.1255173885792082</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.0198259397313654</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>19</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1718227061.614012</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>6727184773.372034</v>
+        <v>1487321441.598937</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002184166546499419</v>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="n">
-        <v>13</v>
+        <v>0.1811600555562231</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.02502415440551201</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>743660752.9666283</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5761272886.352987</v>
+        <v>3571728140.324961</v>
       </c>
       <c r="F59" t="n">
-        <v>0.004147794245280921</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>8</v>
+        <v>0.1155280207243066</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.03485155402072736</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>16</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1785864066.645347</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3864602323.713886</v>
+        <v>3123102707.400321</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003061754305591019</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
+        <v>0.1578255712667291</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02598782151436745</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>18</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1561551436.840794</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
+        <v>3</v>
+      </c>
+      <c r="D61" t="n">
+        <v>517</v>
+      </c>
+      <c r="E61" t="n">
+        <v>3016149367.277569</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.1493643026034828</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02643959709769949</v>
+      </c>
+      <c r="H61" t="b">
         <v>1</v>
       </c>
-      <c r="D61" t="n">
-        <v>488</v>
-      </c>
-      <c r="E61" t="n">
-        <v>4703400699.748319</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.004328904225600577</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>13</v>
+      <c r="I61" t="n">
+        <v>20</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1508074662.463842</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>5045894974.5652</v>
+        <v>1914894113.036808</v>
       </c>
       <c r="F62" t="n">
-        <v>0.002719328522762079</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>11</v>
+        <v>0.1570485614138273</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.0486091947771836</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>957447101.7079505</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>7640810320.389902</v>
+        <v>5582198232.903867</v>
       </c>
       <c r="F63" t="n">
-        <v>0.006011441130182694</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>14</v>
+        <v>0.10759877639563</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.043613921044139</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>17</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2791099108.112942</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3574839757.441003</v>
+        <v>4941655899.967965</v>
       </c>
       <c r="F64" t="n">
-        <v>0.004590277997513134</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1526949558694239</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.03464540167937118</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>18</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2470828051.966903</v>
       </c>
     </row>
     <row r="65">
@@ -2247,19 +2635,25 @@
         <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>7646953913.913193</v>
+        <v>4175610310.738766</v>
       </c>
       <c r="F65" t="n">
-        <v>0.004457189461073389</v>
-      </c>
-      <c r="G65" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" t="n">
-        <v>16</v>
+        <v>0.172003891080373</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.03106769620801059</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>22</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2087805163.349656</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5481550789.572732</v>
+        <v>3940984862.116002</v>
       </c>
       <c r="F66" t="n">
-        <v>0.00371760650289568</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>12</v>
+        <v>0.1170310793622867</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.03302969267133829</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>18</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1970492401.360147</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>5862401353.599821</v>
+        <v>3134448961.951733</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004013825198133949</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>10</v>
+        <v>0.08129545121306986</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04541734889843758</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>19</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1567224487.721919</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6449782685.426751</v>
+        <v>5693881311.946706</v>
       </c>
       <c r="F68" t="n">
-        <v>0.001908339264216532</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>12</v>
+        <v>0.1350909303852977</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.04073237911935994</v>
+      </c>
+      <c r="H68" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>18</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2846940754.273924</v>
       </c>
     </row>
     <row r="69">
@@ -2359,19 +2771,25 @@
         <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>4391981695.038616</v>
+        <v>2119068958.208465</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001273726401212697</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>14</v>
+        <v>0.1519605778962314</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.05792875818107923</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1059534499.36052</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>7914832782.801479</v>
+        <v>3543452864.4079</v>
       </c>
       <c r="F70" t="n">
-        <v>0.002518808862060744</v>
-      </c>
-      <c r="G70" t="b">
+        <v>0.1000457556784799</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.04007411728079065</v>
+      </c>
+      <c r="H70" t="b">
         <v>1</v>
       </c>
-      <c r="H70" t="n">
-        <v>15</v>
+      <c r="I70" t="n">
+        <v>16</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1771726444.48107</v>
       </c>
     </row>
     <row r="71">
@@ -2415,19 +2839,25 @@
         <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4553377750.465815</v>
+        <v>4767622118.714517</v>
       </c>
       <c r="F71" t="n">
-        <v>0.004018164705807899</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1456162786441703</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02485902086980061</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>21</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2383811147.601774</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>5605069916.578319</v>
+        <v>1637399750.466745</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002473812863407823</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>12</v>
+        <v>0.08515284279687288</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.04383387410350326</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>818699879.9223087</v>
       </c>
     </row>
     <row r="73">
@@ -2471,19 +2907,25 @@
         <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>5987719573.299004</v>
+        <v>2612556965.850718</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0009156589023489189</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>13</v>
+        <v>0.1006273195304719</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.03962718570998978</v>
+      </c>
+      <c r="H73" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>22</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1306278514.247993</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>4419512756.342649</v>
+        <v>3109707046.306001</v>
       </c>
       <c r="F74" t="n">
-        <v>0.003870522059036459</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>13</v>
+        <v>0.1719624540790447</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.02706445421752595</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>21</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1554853578.971742</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>6694087533.155888</v>
+        <v>1598854777.724155</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003160082492433255</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>11</v>
+        <v>0.1101221425062003</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.02290196423496037</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>799427390.5183603</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5987875595.44028</v>
+        <v>5332051159.88954</v>
       </c>
       <c r="F76" t="n">
-        <v>0.003020253207054968</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>12</v>
+        <v>0.08673363513471899</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02212585030544571</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>13</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2666025620.423702</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>5524404082.620673</v>
+        <v>1849398152.339182</v>
       </c>
       <c r="F77" t="n">
-        <v>0.005053490141091767</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>20</v>
+        <v>0.1793946384092406</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02668368817559022</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>924699115.3619275</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>6777169501.506382</v>
+        <v>3145411728.415896</v>
       </c>
       <c r="F78" t="n">
-        <v>0.003310900401997401</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>12</v>
+        <v>0.1111808301685724</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.03708825565241056</v>
+      </c>
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>20</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1572705891.032089</v>
       </c>
     </row>
     <row r="79">
@@ -2639,19 +3111,25 @@
         <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>5343196432.251364</v>
+        <v>1852196286.387583</v>
       </c>
       <c r="F79" t="n">
-        <v>0.001846251979315491</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>12</v>
+        <v>0.1476520640723191</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03623618555815759</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>926098238.8847549</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>7539830894.288548</v>
+        <v>4046911160.236818</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002621960168437474</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>19</v>
+        <v>0.07427723813982283</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.02898347809427244</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>12</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2023455581.81114</v>
       </c>
     </row>
     <row r="81">
@@ -2695,19 +3179,25 @@
         <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5812618996.561362</v>
+        <v>4042593285.950109</v>
       </c>
       <c r="F81" t="n">
-        <v>0.005241881129689734</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
+        <v>0.1299196831977289</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02239596175026436</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>13</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2021296607.656439</v>
       </c>
     </row>
     <row r="82">
@@ -2723,19 +3213,25 @@
         <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5544023333.89749</v>
+        <v>4563650116.58107</v>
       </c>
       <c r="F82" t="n">
-        <v>0.003634804490410268</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>10</v>
+        <v>0.1386497950794875</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02628044686000118</v>
+      </c>
+      <c r="H82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>20</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2281825066.490003</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>7397865220.548365</v>
+        <v>2363876978.339029</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003608169038243394</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>16</v>
+        <v>0.1011518962131538</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03376262127348236</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1181938519.609439</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>6219944126.765002</v>
+        <v>2021485095.948344</v>
       </c>
       <c r="F84" t="n">
-        <v>0.003603509453831891</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>16</v>
+        <v>0.1088798926096165</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.0392238744631655</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1010742549.721112</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>4705321848.762362</v>
+        <v>2540983125.13109</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003108322326840933</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
+        <v>0.111853675847557</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.03704503816551139</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>22</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1270491571.927704</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>6283600779.897794</v>
+        <v>1865189527.480323</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002446746761950474</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>16</v>
+        <v>0.1621916107780737</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.0207058502112616</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>5</v>
+      </c>
+      <c r="J86" t="n">
+        <v>932594772.4754623</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>3340666830.368334</v>
+        <v>1472987301.948501</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001262117929399465</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1351229786116797</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03911334488803563</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>736493776.4323776</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>7343695495.162773</v>
+        <v>2333510531.923142</v>
       </c>
       <c r="F88" t="n">
-        <v>0.003867262060011762</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>13</v>
+        <v>0.1602975672350158</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03059029061352115</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>23</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1166755230.453155</v>
       </c>
     </row>
     <row r="89">
@@ -2919,19 +3451,25 @@
         <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>5388929748.219383</v>
+        <v>2554126149.787673</v>
       </c>
       <c r="F89" t="n">
-        <v>0.005314605827173392</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>13</v>
+        <v>0.1011481470922354</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.02552957680161025</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>20</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1277063145.558613</v>
       </c>
     </row>
     <row r="90">
@@ -2947,19 +3485,25 @@
         <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>7525570453.678059</v>
+        <v>1403932735.336954</v>
       </c>
       <c r="F90" t="n">
-        <v>0.002498585409516184</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>11</v>
+        <v>0.09722708026527356</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.05058458101832215</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>701966328.6838998</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>4962467970.646891</v>
+        <v>1300994984.768456</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003771719925890054</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>18</v>
+        <v>0.1427752822173972</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.06077005148011419</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>650497557.6965005</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>5418376603.254435</v>
+        <v>2439850583.883537</v>
       </c>
       <c r="F92" t="n">
-        <v>0.002781172521841496</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.07587721017410626</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.02965932531760922</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>13</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1219925271.23021</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>7228727939.612649</v>
+        <v>3920201611.909798</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001772527742049582</v>
-      </c>
-      <c r="G93" t="b">
+        <v>0.1146399724279655</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.05272850917947812</v>
+      </c>
+      <c r="H93" t="b">
         <v>1</v>
       </c>
-      <c r="H93" t="n">
-        <v>21</v>
+      <c r="I93" t="n">
+        <v>17</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1960100811.626462</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>6961251112.562385</v>
+        <v>2276007542.400473</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001534244462101249</v>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>17</v>
+        <v>0.1372695839167064</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.03351220084977315</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1138003805.360049</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>7260499716.73271</v>
+        <v>2081101468.660642</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002165591839806964</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>15</v>
+        <v>0.08593217474371825</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.05020371615692971</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>14</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1040550800.745067</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>6080594001.574253</v>
+        <v>2371655643.171949</v>
       </c>
       <c r="F96" t="n">
-        <v>0.003127591144224059</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>16</v>
+        <v>0.1388720436454886</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.04244451382918249</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1185827768.765267</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5271167919.082109</v>
+        <v>5045599027.827429</v>
       </c>
       <c r="F97" t="n">
-        <v>0.004220127391277579</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>15</v>
+        <v>0.1189649712278834</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02074455285098846</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>19</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2522799654.255062</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>6152116938.395916</v>
+        <v>3269046457.84654</v>
       </c>
       <c r="F98" t="n">
-        <v>0.003398975419394297</v>
-      </c>
-      <c r="G98" t="b">
+        <v>0.1176819486260392</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02698477950622604</v>
+      </c>
+      <c r="H98" t="b">
         <v>1</v>
       </c>
-      <c r="H98" t="n">
-        <v>22</v>
+      <c r="I98" t="n">
+        <v>15</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1634523231.741636</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2995582098.764758</v>
+        <v>2410084225.526714</v>
       </c>
       <c r="F99" t="n">
-        <v>0.00388835935290432</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1021561634317273</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02547640690197255</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>18</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1205042055.806607</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4994982746.901972</v>
+        <v>3460970233.427935</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002947423452955617</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>5</v>
+        <v>0.136444626143642</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02096675693395406</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>18</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1730485144.26663</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
+        <v>4</v>
+      </c>
+      <c r="D101" t="n">
+        <v>584</v>
+      </c>
+      <c r="E101" t="n">
+        <v>3452184886.361256</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.1406547887608394</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.04020112980504013</v>
+      </c>
+      <c r="H101" t="b">
         <v>1</v>
       </c>
-      <c r="D101" t="n">
-        <v>573</v>
-      </c>
-      <c r="E101" t="n">
-        <v>5181636413.144749</v>
-      </c>
-      <c r="F101" t="n">
-        <v>0.00134685292593726</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>19</v>
+      <c r="I101" t="n">
+        <v>25</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1726092591.892289</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_59.xlsx
+++ b/output/fit_clients/fit_round_59.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1772462789.734293</v>
+        <v>1857950633.781476</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08341411236468954</v>
+        <v>0.08873683330501037</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02764817271091313</v>
+        <v>0.03407655982345487</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>886231359.7675047</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1980119757.92452</v>
+        <v>2580056158.940688</v>
       </c>
       <c r="F3" t="n">
-        <v>0.164786083152859</v>
+        <v>0.1125258424803176</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03043761098988857</v>
+        <v>0.04912951111420346</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>990059915.8227862</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3208565341.424731</v>
+        <v>3409718436.370749</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1042321950428734</v>
+        <v>0.1468310013069163</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02568516978460066</v>
+        <v>0.02739429233650253</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>21</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1604282628.690583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2712040396.374331</v>
+        <v>2836773548.270722</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07819799410128306</v>
+        <v>0.08173455404572345</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04606113074791319</v>
+        <v>0.05060236713670244</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>23</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1356020286.981858</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1738232310.05897</v>
+        <v>2294365206.050073</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1337789896788541</v>
+        <v>0.1250569891787277</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04829771645616603</v>
+        <v>0.05186206397157616</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>9</v>
-      </c>
-      <c r="J6" t="n">
-        <v>869116212.8475885</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2253090179.263709</v>
+        <v>2759117139.307081</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08998698205295518</v>
+        <v>0.06392436426718298</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04937009001114696</v>
+        <v>0.03854098804715508</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>19</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1126545126.29706</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3808364623.421891</v>
+        <v>3083603804.44071</v>
       </c>
       <c r="F8" t="n">
-        <v>0.213774804561629</v>
+        <v>0.180877416419989</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03126681735919293</v>
+        <v>0.03275635378764238</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>19</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1904182451.729231</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1450948005.957709</v>
+        <v>1965614859.227798</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1378474446421616</v>
+        <v>0.124841564009428</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02279524947416166</v>
+        <v>0.02769406965915725</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>725474105.6326004</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5503164381.340559</v>
+        <v>4697944371.311006</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1995345915468979</v>
+        <v>0.1320683911751601</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03578066527584858</v>
+        <v>0.04557994164125551</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>25</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2751582328.804399</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2708765052.183104</v>
+        <v>2890714763.622337</v>
       </c>
       <c r="F11" t="n">
-        <v>0.185505484405778</v>
+        <v>0.1357717666014515</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0423503474445141</v>
+        <v>0.04282483234301415</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>26</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1354382448.609212</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2208853844.949783</v>
+        <v>2464663412.217768</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1600531783443783</v>
+        <v>0.1901380283068058</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05254955161878193</v>
+        <v>0.04226818838512814</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>20</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1104426867.930506</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4241195062.179216</v>
+        <v>5146391543.57665</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07294440053083172</v>
+        <v>0.089950512655144</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02705608926707516</v>
+        <v>0.02287926771384154</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>20</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2120597573.653448</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2730184045.566397</v>
+        <v>3040536118.869469</v>
       </c>
       <c r="F14" t="n">
-        <v>0.147195129779478</v>
+        <v>0.183787500700171</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03129941831026889</v>
+        <v>0.0272577730979184</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>19</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1365092076.653627</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1158334082.237912</v>
+        <v>1201926604.859728</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07547751412844382</v>
+        <v>0.09762952380410522</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04158983045183597</v>
+        <v>0.04268441447045122</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>579167049.0498534</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2794439969.890028</v>
+        <v>1773456895.38161</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07928015381843453</v>
+        <v>0.0842882133014189</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04020214815360669</v>
+        <v>0.04255138109848922</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>9</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1397219989.338968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3308015259.881273</v>
+        <v>4229906909.625332</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1648195048811266</v>
+        <v>0.1219918709093102</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05216871101737576</v>
+        <v>0.03716208144380804</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>17</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1654007698.620882</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3023147195.72738</v>
+        <v>3602423987.67022</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1528812695198288</v>
+        <v>0.1641746552439706</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03350122491485284</v>
+        <v>0.03442650484019556</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>19</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1511573626.364334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>926731485.6230267</v>
+        <v>989795240.5977637</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1785663430340436</v>
+        <v>0.1290037171194183</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02536331029861429</v>
+        <v>0.02336658226823917</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>463365754.1124845</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2358651738.971727</v>
+        <v>2226595883.326527</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1589072279487675</v>
+        <v>0.1216879430493544</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02837828113563143</v>
+        <v>0.02182107542489822</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1179325857.522456</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1898295590.900866</v>
+        <v>2166910312.462269</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08632275108960097</v>
+        <v>0.06915619369098149</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03136979871490172</v>
+        <v>0.03322749459024821</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>7</v>
-      </c>
-      <c r="J21" t="n">
-        <v>949147840.9809977</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3985121649.288157</v>
+        <v>2961475721.475168</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1219763529899266</v>
+        <v>0.1311496450835279</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05318137995328945</v>
+        <v>0.04996979341493843</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>16</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1992560827.065235</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1494778000.659531</v>
+        <v>1421815178.014333</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1274454079173361</v>
+        <v>0.1483694392486942</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04981331122023223</v>
+        <v>0.04203687478821048</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>747388987.0368913</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3820338259.566181</v>
+        <v>3917304677.348375</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09512257603770072</v>
+        <v>0.100013605434532</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02942243820420583</v>
+        <v>0.02873146435205957</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>17</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1910169109.700437</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1292592823.1364</v>
+        <v>1177538252.647518</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08615652252381537</v>
+        <v>0.1147255231049965</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02739271930055115</v>
+        <v>0.01889056328491857</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>646296408.1207899</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1302575066.84726</v>
+        <v>1367290577.00226</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09142330012414759</v>
+        <v>0.09908968365455453</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03081992309061997</v>
+        <v>0.02359217338225283</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>651287579.450124</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3351996804.950607</v>
+        <v>4061213704.594488</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1104385915210378</v>
+        <v>0.1196690112428245</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02251177352819551</v>
+        <v>0.01829849242784865</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>14</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1675998444.69628</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3513512106.300639</v>
+        <v>2424095052.292603</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1019857493272932</v>
+        <v>0.1061721301521568</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04976042781901437</v>
+        <v>0.04866443880294051</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>19</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1756756108.862113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4508565410.36243</v>
+        <v>5594340829.242366</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09528152350957038</v>
+        <v>0.1090652485086859</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03047738890841756</v>
+        <v>0.03952634894544953</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>26</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2254282686.657673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2339667919.713552</v>
+        <v>1638923477.432232</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09974732105677975</v>
+        <v>0.08617243732614245</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03266276371759098</v>
+        <v>0.03654326460357088</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1169834035.916035</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1354269224.371292</v>
+        <v>1259921678.486436</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09632704731746532</v>
+        <v>0.07908215995132743</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03221702247868957</v>
+        <v>0.03823561079866163</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>677134527.2408968</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1598523985.731284</v>
+        <v>1710406311.160499</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1070399013831983</v>
+        <v>0.1006165916920313</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03031073529708591</v>
+        <v>0.02744902775965304</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>799262081.4749495</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2538546565.91751</v>
+        <v>2602461264.652665</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1594703556312655</v>
+        <v>0.2087469691458749</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05154818344570421</v>
+        <v>0.05456290815274879</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>17</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1269273317.764097</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1311745049.458645</v>
+        <v>1215693479.209781</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09345830884980841</v>
+        <v>0.09410410913423488</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02681851889898489</v>
+        <v>0.02523367539464566</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>655872511.3110359</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1103997491.339892</v>
+        <v>1229960922.093557</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08949329479557437</v>
+        <v>0.09956213053248752</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03576722326432524</v>
+        <v>0.03302772877689887</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>551998741.3235612</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2899627538.856098</v>
+        <v>2542174255.58797</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1218840945170694</v>
+        <v>0.1289972299040967</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02358606138405991</v>
+        <v>0.02182480661915959</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>15</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1449813759.274348</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2037829923.590233</v>
+        <v>2742248382.226411</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07722047688350857</v>
+        <v>0.08960162082884085</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04040187418489126</v>
+        <v>0.0402532243509586</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>16</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1018914994.156769</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1415564789.051041</v>
+        <v>1706834447.665471</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1028043791564874</v>
+        <v>0.09911219382998894</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03525257585464277</v>
+        <v>0.03234496600094027</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>707782455.5674598</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1573327443.53381</v>
+        <v>1912047202.248789</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1451177541065769</v>
+        <v>0.1529576529490926</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02728647594687028</v>
+        <v>0.03155363601542774</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>786663780.9683582</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1686867868.588671</v>
+        <v>1478371486.305509</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1261248675877861</v>
+        <v>0.1307815440238025</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06000925269983971</v>
+        <v>0.0379139909305793</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>843433853.5860764</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2359679215.06185</v>
+        <v>2124989832.911231</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1162226570338364</v>
+        <v>0.1175742781875314</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0430937974472778</v>
+        <v>0.0339596129946584</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>16</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1179839646.462604</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3993374163.982792</v>
+        <v>3314247991.737977</v>
       </c>
       <c r="F42" t="n">
-        <v>0.121395974246161</v>
+        <v>0.09100324682557955</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03825260279137824</v>
+        <v>0.03167391237860104</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>20</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1996687110.711206</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2655254079.667884</v>
+        <v>2852842135.138579</v>
       </c>
       <c r="F43" t="n">
-        <v>0.126990153918625</v>
+        <v>0.1283845799124057</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02392150616918719</v>
+        <v>0.01757551647917983</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>19</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1327627072.778126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2189050168.93321</v>
+        <v>1749237945.536143</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08418355942473593</v>
+        <v>0.06380712857034164</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03196154140656338</v>
+        <v>0.02531811024627302</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1094525228.397871</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1613481538.325683</v>
+        <v>2376554963.19545</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1217139873998587</v>
+        <v>0.1828579924668613</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05425785008519485</v>
+        <v>0.04549522159054401</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>806740721.0021652</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4906437099.762856</v>
+        <v>3670045698.820985</v>
       </c>
       <c r="F46" t="n">
-        <v>0.140127369925118</v>
+        <v>0.1319385034554833</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05839020219933606</v>
+        <v>0.03906302554991534</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>21</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2453218571.191144</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4412565729.52497</v>
+        <v>3841969791.789178</v>
       </c>
       <c r="F47" t="n">
-        <v>0.156339181322259</v>
+        <v>0.1405597407024863</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05816814784215734</v>
+        <v>0.04291000215727048</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>16</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2206282887.194852</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3975976186.15032</v>
+        <v>3347199861.272109</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07881263779708558</v>
+        <v>0.07709879844911756</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0287690021872488</v>
+        <v>0.03666959981573324</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>20</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1987988128.716085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1566609914.587843</v>
+        <v>1236226882.806439</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1627261753128287</v>
+        <v>0.1835360125556216</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03954995800445249</v>
+        <v>0.03773539252478104</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>783304978.8332725</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3047723386.692976</v>
+        <v>2554699005.489116</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1329070783961353</v>
+        <v>0.1410348051231604</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03812789441546054</v>
+        <v>0.05087705120135682</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>20</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1523861749.675105</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1428945190.32662</v>
+        <v>1271680366.749198</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1966903398825967</v>
+        <v>0.1836233268232912</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03829412852466435</v>
+        <v>0.03623686786368768</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>714472609.5058801</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3570886490.207969</v>
+        <v>4518296404.819062</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08850325030031567</v>
+        <v>0.1061812287621476</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03927778250139013</v>
+        <v>0.0407540947915622</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>24</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1785443326.71951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2680701614.723661</v>
+        <v>3646846929.534574</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1276399053224482</v>
+        <v>0.1572426170982813</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02927678591237895</v>
+        <v>0.03192687043720823</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>17</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1340350861.736335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3020946189.456912</v>
+        <v>3725905897.043436</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1427940354432963</v>
+        <v>0.1348134883195613</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04533300005292632</v>
+        <v>0.05023299781898526</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>19</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1510473081.849285</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4212642033.086597</v>
+        <v>4974458172.009512</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1769299539995094</v>
+        <v>0.1783616749709384</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03123965064951134</v>
+        <v>0.03174011769358561</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>16</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2106321000.707287</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1365146186.347704</v>
+        <v>1628840471.701602</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1401285645762922</v>
+        <v>0.1442720600307001</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05115201868096177</v>
+        <v>0.03562884408189367</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>682573155.2890869</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3436454041.348379</v>
+        <v>3000341275.375865</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1255173885792082</v>
+        <v>0.1479393926270449</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0198259397313654</v>
+        <v>0.02574408169366153</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>19</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1718227061.614012</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1487321441.598937</v>
+        <v>1843392270.277598</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1811600555562231</v>
+        <v>0.18468379611034</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02502415440551201</v>
+        <v>0.03973863093700419</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>743660752.9666283</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3571728140.324961</v>
+        <v>3790771821.015825</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1155280207243066</v>
+        <v>0.09277077903757999</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03485155402072736</v>
+        <v>0.04194060676024715</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>16</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1785864066.645347</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3123102707.400321</v>
+        <v>3437023266.764403</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1578255712667291</v>
+        <v>0.1495968711484229</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02598782151436745</v>
+        <v>0.02933844068170852</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>18</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1561551436.840794</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3016149367.277569</v>
+        <v>3372080317.822114</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1493643026034828</v>
+        <v>0.1696814354512803</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02643959709769949</v>
+        <v>0.0329153388273464</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>20</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1508074662.463842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1914894113.036808</v>
+        <v>2108709815.247225</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1570485614138273</v>
+        <v>0.1324120354953975</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0486091947771836</v>
+        <v>0.04806318469336315</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>957447101.7079505</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5582198232.903867</v>
+        <v>5109907665.440434</v>
       </c>
       <c r="F63" t="n">
-        <v>0.10759877639563</v>
+        <v>0.09984583025138857</v>
       </c>
       <c r="G63" t="n">
-        <v>0.043613921044139</v>
+        <v>0.04536462884937326</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>17</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2791099108.112942</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4941655899.967965</v>
+        <v>4273419840.06177</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1526949558694239</v>
+        <v>0.1495778062224812</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03464540167937118</v>
+        <v>0.02212223549568923</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>18</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2470828051.966903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4175610310.738766</v>
+        <v>4479055299.723386</v>
       </c>
       <c r="F65" t="n">
-        <v>0.172003891080373</v>
+        <v>0.1225535614274143</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03106769620801059</v>
+        <v>0.02688904573584976</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>22</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2087805163.349656</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3940984862.116002</v>
+        <v>4012973254.762078</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1170310793622867</v>
+        <v>0.1313400434064516</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03302969267133829</v>
+        <v>0.05121520496314989</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>18</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1970492401.360147</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3134448961.951733</v>
+        <v>3219650921.005772</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08129545121306986</v>
+        <v>0.08522224781963379</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04541734889843758</v>
+        <v>0.04969003432325535</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>19</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1567224487.721919</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5693881311.946706</v>
+        <v>5543721540.924008</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1350909303852977</v>
+        <v>0.1259146116096487</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04073237911935994</v>
+        <v>0.03727707219582871</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>18</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2846940754.273924</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2119068958.208465</v>
+        <v>1552001937.322998</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1519605778962314</v>
+        <v>0.127683221677858</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05792875818107923</v>
+        <v>0.04687274653404953</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1059534499.36052</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3543452864.4079</v>
+        <v>3666449124.430873</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1000457556784799</v>
+        <v>0.07639115603833888</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04007411728079065</v>
+        <v>0.0335961433494995</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>16</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1771726444.48107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4767622118.714517</v>
+        <v>4378158093.89212</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1456162786441703</v>
+        <v>0.1816482435220278</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02485902086980061</v>
+        <v>0.0297786360119386</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>21</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2383811147.601774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1637399750.466745</v>
+        <v>2139120204.474285</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08515284279687288</v>
+        <v>0.06800387094012705</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04383387410350326</v>
+        <v>0.05237999603326535</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>818699879.9223087</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2612556965.850718</v>
+        <v>2785496658.949883</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1006273195304719</v>
+        <v>0.08165070697858962</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03962718570998978</v>
+        <v>0.04569460649252585</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>22</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1306278514.247993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3109707046.306001</v>
+        <v>2478089952.767688</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1719624540790447</v>
+        <v>0.1728724984284907</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02706445421752595</v>
+        <v>0.02537436814386171</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>21</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1554853578.971742</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1598854777.724155</v>
+        <v>1975047144.175858</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1101221425062003</v>
+        <v>0.1527416263809126</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02290196423496037</v>
+        <v>0.02624042409933793</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>799427390.5183603</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5332051159.88954</v>
+        <v>3991177370.202024</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08673363513471899</v>
+        <v>0.1121239144251335</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02212585030544571</v>
+        <v>0.02662446743612999</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>13</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2666025620.423702</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1849398152.339182</v>
+        <v>1983804299.287942</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1793946384092406</v>
+        <v>0.1326148990866098</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02668368817559022</v>
+        <v>0.0242941161533827</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>924699115.3619275</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3145411728.415896</v>
+        <v>3141286709.824951</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1111808301685724</v>
+        <v>0.08354918810474972</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03708825565241056</v>
+        <v>0.04480039462871126</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>20</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1572705891.032089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1852196286.387583</v>
+        <v>1539584806.071885</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1476520640723191</v>
+        <v>0.1190865025921143</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03623618555815759</v>
+        <v>0.03863389231279334</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>926098238.8847549</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4046911160.236818</v>
+        <v>5501672498.282662</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07427723813982283</v>
+        <v>0.1008847819599785</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02898347809427244</v>
+        <v>0.03154669618564468</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>12</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2023455581.81114</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4042593285.950109</v>
+        <v>5049886142.462753</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1299196831977289</v>
+        <v>0.08320881624332765</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02239596175026436</v>
+        <v>0.0200257311651863</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>13</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2021296607.656439</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4563650116.58107</v>
+        <v>4030302769.273076</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1386497950794875</v>
+        <v>0.1351878709758848</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02628044686000118</v>
+        <v>0.02745413081961382</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>20</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2281825066.490003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2363876978.339029</v>
+        <v>1540452897.785721</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1011518962131538</v>
+        <v>0.1041991378023235</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03376262127348236</v>
+        <v>0.03000019868405525</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1181938519.609439</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2021485095.948344</v>
+        <v>2412453142.878844</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1088798926096165</v>
+        <v>0.09532820632304013</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0392238744631655</v>
+        <v>0.03817194974788531</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1010742549.721112</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2540983125.13109</v>
+        <v>2535100774.318328</v>
       </c>
       <c r="F85" t="n">
-        <v>0.111853675847557</v>
+        <v>0.1327807326780158</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03704503816551139</v>
+        <v>0.04242199430374896</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>22</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1270491571.927704</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1865189527.480323</v>
+        <v>1853023750.088287</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1621916107780737</v>
+        <v>0.1321161421837625</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0207058502112616</v>
+        <v>0.0267419051601612</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>5</v>
-      </c>
-      <c r="J86" t="n">
-        <v>932594772.4754623</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1472987301.948501</v>
+        <v>1198460768.218296</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1351229786116797</v>
+        <v>0.1539295281107495</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03911334488803563</v>
+        <v>0.04230346075713822</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>736493776.4323776</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2333510531.923142</v>
+        <v>2523071648.14911</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1602975672350158</v>
+        <v>0.1249896090379923</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03059029061352115</v>
+        <v>0.02661230707519566</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>23</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1166755230.453155</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2554126149.787673</v>
+        <v>2373137668.630997</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1011481470922354</v>
+        <v>0.1529252240530827</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02552957680161025</v>
+        <v>0.03493364462808876</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>20</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1277063145.558613</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1403932735.336954</v>
+        <v>1856692454.965727</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09722708026527356</v>
+        <v>0.1350551911145987</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05058458101832215</v>
+        <v>0.03490742969868622</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>701966328.6838998</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1300994984.768456</v>
+        <v>1644890695.974503</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1427752822173972</v>
+        <v>0.1908889891997468</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06077005148011419</v>
+        <v>0.04630148946621987</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>650497557.6965005</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2439850583.883537</v>
+        <v>2147911910.216494</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07587721017410626</v>
+        <v>0.09281525634022551</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02965932531760922</v>
+        <v>0.03406153890645931</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>13</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1219925271.23021</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3920201611.909798</v>
+        <v>4086270396.138376</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1146399724279655</v>
+        <v>0.1061016133382681</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05272850917947812</v>
+        <v>0.03677085471048934</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>17</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1960100811.626462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2276007542.400473</v>
+        <v>2438144721.306429</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1372695839167064</v>
+        <v>0.1287708269075588</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03351220084977315</v>
+        <v>0.03313986062105265</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1138003805.360049</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2081101468.660642</v>
+        <v>3165132659.352898</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08593217474371825</v>
+        <v>0.1207755852847995</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05020371615692971</v>
+        <v>0.03304044527605522</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>14</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1040550800.745067</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2371655643.171949</v>
+        <v>1941826310.629022</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1388720436454886</v>
+        <v>0.1334421670993866</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04244451382918249</v>
+        <v>0.03082457787024019</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1185827768.765267</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5045599027.827429</v>
+        <v>3655545819.783182</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1189649712278834</v>
+        <v>0.1631542910991968</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02074455285098846</v>
+        <v>0.01911222569231842</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>19</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2522799654.255062</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3269046457.84654</v>
+        <v>2847108169.331144</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1176819486260392</v>
+        <v>0.1235333877248232</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02698477950622604</v>
+        <v>0.03283925134299717</v>
       </c>
       <c r="H98" t="b">
         <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>15</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1634523231.741636</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2410084225.526714</v>
+        <v>2299040179.418684</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1021561634317273</v>
+        <v>0.1404914111195308</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02547640690197255</v>
+        <v>0.03270253849997738</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>18</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1205042055.806607</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3460970233.427935</v>
+        <v>3731740445.165048</v>
       </c>
       <c r="F100" t="n">
-        <v>0.136444626143642</v>
+        <v>0.1454076619990573</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02096675693395406</v>
+        <v>0.01705911229749055</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>18</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1730485144.26663</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3452184886.361256</v>
+        <v>2755878735.592688</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1406547887608394</v>
+        <v>0.1890891180304844</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04020112980504013</v>
+        <v>0.05370579844521108</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>25</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1726092591.892289</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_59.xlsx
+++ b/output/fit_clients/fit_round_59.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1857950633.781476</v>
+        <v>1926777895.395393</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08873683330501037</v>
+        <v>0.08115998974636555</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03407655982345487</v>
+        <v>0.0367823217072358</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2580056158.940688</v>
+        <v>2138435392.031507</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1125258424803176</v>
+        <v>0.178162203054623</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04912951111420346</v>
+        <v>0.04935032508335004</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3409718436.370749</v>
+        <v>3896514891.881467</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1468310013069163</v>
+        <v>0.114895219300969</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02739429233650253</v>
+        <v>0.03167148789581535</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2836773548.270722</v>
+        <v>2608320702.361525</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08173455404572345</v>
+        <v>0.07488352928447041</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05060236713670244</v>
+        <v>0.0366367797711591</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2294365206.050073</v>
+        <v>1944736138.321269</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1250569891787277</v>
+        <v>0.08983659001004225</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05186206397157616</v>
+        <v>0.05385208626697999</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2759117139.307081</v>
+        <v>2269772869.294105</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06392436426718298</v>
+        <v>0.08457295359333272</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03854098804715508</v>
+        <v>0.04835518506901914</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3083603804.44071</v>
+        <v>2979022600.759228</v>
       </c>
       <c r="F8" t="n">
-        <v>0.180877416419989</v>
+        <v>0.1472890261354918</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03275635378764238</v>
+        <v>0.029278230275317</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1965614859.227798</v>
+        <v>1674507149.177578</v>
       </c>
       <c r="F9" t="n">
-        <v>0.124841564009428</v>
+        <v>0.1895294038589806</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02769406965915725</v>
+        <v>0.02987756005363971</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4697944371.311006</v>
+        <v>4620257263.854613</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1320683911751601</v>
+        <v>0.1485153466641623</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04557994164125551</v>
+        <v>0.03600438845239956</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2890714763.622337</v>
+        <v>3870361462.978479</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1357717666014515</v>
+        <v>0.1433973779394743</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04282483234301415</v>
+        <v>0.03019842260640493</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2464663412.217768</v>
+        <v>2353178408.294309</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1901380283068058</v>
+        <v>0.1242670175667956</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04226818838512814</v>
+        <v>0.0462470687982275</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5146391543.57665</v>
+        <v>4888446499.132773</v>
       </c>
       <c r="F13" t="n">
-        <v>0.089950512655144</v>
+        <v>0.08090847571105171</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02287926771384154</v>
+        <v>0.02806114898485428</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3040536118.869469</v>
+        <v>2371209311.771887</v>
       </c>
       <c r="F14" t="n">
-        <v>0.183787500700171</v>
+        <v>0.124147555573022</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0272577730979184</v>
+        <v>0.03110986580274723</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1201926604.859728</v>
+        <v>1821306581.233149</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09762952380410522</v>
+        <v>0.08784202901729919</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04268441447045122</v>
+        <v>0.04139082979333304</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1773456895.38161</v>
+        <v>1874018863.943969</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0842882133014189</v>
+        <v>0.07455244038877505</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04255138109848922</v>
+        <v>0.04965711475854897</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4229906909.625332</v>
+        <v>4114868055.725669</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1219918709093102</v>
+        <v>0.1579277160504183</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03716208144380804</v>
+        <v>0.05269661537284109</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3602423987.67022</v>
+        <v>3018515305.898188</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1641746552439706</v>
+        <v>0.1164200303135385</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03442650484019556</v>
+        <v>0.03449960483889537</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>989795240.5977637</v>
+        <v>1055602927.499102</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1290037171194183</v>
+        <v>0.1780983760634899</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02336658226823917</v>
+        <v>0.01704021833897989</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2226595883.326527</v>
+        <v>2542332145.043427</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1216879430493544</v>
+        <v>0.1249382508361517</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02182107542489822</v>
+        <v>0.03133202097573367</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2166910312.462269</v>
+        <v>2125613936.407914</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06915619369098149</v>
+        <v>0.07335329036648425</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03322749459024821</v>
+        <v>0.04347075542159964</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2961475721.475168</v>
+        <v>3098221975.750883</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1311496450835279</v>
+        <v>0.131637487248733</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04996979341493843</v>
+        <v>0.05356852164545899</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1421815178.014333</v>
+        <v>974278655.4264547</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1483694392486942</v>
+        <v>0.1698850761121452</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04203687478821048</v>
+        <v>0.04534922275400462</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3917304677.348375</v>
+        <v>3339351156.141752</v>
       </c>
       <c r="F24" t="n">
-        <v>0.100013605434532</v>
+        <v>0.1502098206084541</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02873146435205957</v>
+        <v>0.02954877641652544</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1177538252.647518</v>
+        <v>1290178488.070993</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1147255231049965</v>
+        <v>0.09075457118921244</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01889056328491857</v>
+        <v>0.02454484941424098</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1367290577.00226</v>
+        <v>1182202038.610777</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09908968365455453</v>
+        <v>0.1225414726773175</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02359217338225283</v>
+        <v>0.03660581339667819</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4061213704.594488</v>
+        <v>3314197911.776625</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1196690112428245</v>
+        <v>0.1161554847506245</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01829849242784865</v>
+        <v>0.02569469169733155</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2424095052.292603</v>
+        <v>3112835323.91201</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1061721301521568</v>
+        <v>0.09500282932210331</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04866443880294051</v>
+        <v>0.03745709438421467</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5594340829.242366</v>
+        <v>4231313371.801096</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1090652485086859</v>
+        <v>0.132508955729438</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03952634894544953</v>
+        <v>0.04294552847065539</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1638923477.432232</v>
+        <v>1860847872.642712</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08617243732614245</v>
+        <v>0.1392423651862373</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03654326460357088</v>
+        <v>0.02431637772518085</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1259921678.486436</v>
+        <v>1363207048.453681</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07908215995132743</v>
+        <v>0.09514318804153567</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03823561079866163</v>
+        <v>0.04492325257439549</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1710406311.160499</v>
+        <v>1149408274.080964</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1006165916920313</v>
+        <v>0.1199821083640702</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02744902775965304</v>
+        <v>0.03149534210448036</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2602461264.652665</v>
+        <v>2466648565.236812</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2087469691458749</v>
+        <v>0.1866816450866589</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05456290815274879</v>
+        <v>0.05024717084556522</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1215693479.209781</v>
+        <v>1179583067.448669</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09410410913423488</v>
+        <v>0.0808567125594831</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02523367539464566</v>
+        <v>0.02823672444465773</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1229960922.093557</v>
+        <v>1026181247.510594</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09956213053248752</v>
+        <v>0.08455773423436153</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03302772877689887</v>
+        <v>0.03135208915836273</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2542174255.58797</v>
+        <v>2674413719.469317</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1289972299040967</v>
+        <v>0.1154918586368733</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02182480661915959</v>
+        <v>0.02481420437023919</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2742248382.226411</v>
+        <v>2415515965.892952</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08960162082884085</v>
+        <v>0.08998118713416844</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0402532243509586</v>
+        <v>0.04095643782430653</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1706834447.665471</v>
+        <v>1983071024.765491</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09911219382998894</v>
+        <v>0.1101113427358616</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03234496600094027</v>
+        <v>0.02982755606868419</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1912047202.248789</v>
+        <v>1771485605.023432</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1529576529490926</v>
+        <v>0.1306006378340928</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03155363601542774</v>
+        <v>0.02765472091384115</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1478371486.305509</v>
+        <v>1700047029.75063</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1307815440238025</v>
+        <v>0.1020124795969298</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0379139909305793</v>
+        <v>0.05026292092678799</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2124989832.911231</v>
+        <v>2064977111.426929</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1175742781875314</v>
+        <v>0.1402775257848832</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0339596129946584</v>
+        <v>0.03968131979862361</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3314247991.737977</v>
+        <v>3136915833.811805</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09100324682557955</v>
+        <v>0.09494890240554886</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03167391237860104</v>
+        <v>0.02972153885052646</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2852842135.138579</v>
+        <v>2398826954.401472</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1283845799124057</v>
+        <v>0.1310241270947034</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01757551647917983</v>
+        <v>0.01656272061256815</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1749237945.536143</v>
+        <v>1429608864.881522</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06380712857034164</v>
+        <v>0.08399531140091961</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02531811024627302</v>
+        <v>0.02866922264401063</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2376554963.19545</v>
+        <v>2384325444.007655</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1828579924668613</v>
+        <v>0.1232014942304675</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04549522159054401</v>
+        <v>0.05519250885643934</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3670045698.820985</v>
+        <v>4815297976.209096</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1319385034554833</v>
+        <v>0.1579039076372065</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03906302554991534</v>
+        <v>0.04718663769441778</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3841969791.789178</v>
+        <v>5062482500.668844</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1405597407024863</v>
+        <v>0.1297107441608685</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04291000215727048</v>
+        <v>0.04008769989887308</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3347199861.272109</v>
+        <v>3804726283.196427</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07709879844911756</v>
+        <v>0.1069856011230156</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03666959981573324</v>
+        <v>0.0381016284046292</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1236226882.806439</v>
+        <v>1680958295.585888</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1835360125556216</v>
+        <v>0.159813896283777</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03773539252478104</v>
+        <v>0.03920441569713748</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2554699005.489116</v>
+        <v>2754343532.505664</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1410348051231604</v>
+        <v>0.1717368938872728</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05087705120135682</v>
+        <v>0.03887698084407796</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1271680366.749198</v>
+        <v>1333758109.853235</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1836233268232912</v>
+        <v>0.1318325122622712</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03623686786368768</v>
+        <v>0.03938151197755888</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4518296404.819062</v>
+        <v>3408647077.822655</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1061812287621476</v>
+        <v>0.09039776598482864</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0407540947915622</v>
+        <v>0.04172335047680989</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3646846929.534574</v>
+        <v>2827109264.547554</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1572426170982813</v>
+        <v>0.2003964841605116</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03192687043720823</v>
+        <v>0.03515783854574024</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3725905897.043436</v>
+        <v>4352232553.695406</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1348134883195613</v>
+        <v>0.1026061897536438</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05023299781898526</v>
+        <v>0.04318844094412645</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4974458172.009512</v>
+        <v>3045392467.167248</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1783616749709384</v>
+        <v>0.1907668892910308</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03174011769358561</v>
+        <v>0.03010006481315716</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1628840471.701602</v>
+        <v>1624562277.736428</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1442720600307001</v>
+        <v>0.1577671841627468</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03562884408189367</v>
+        <v>0.04695397162077253</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,16 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3000341275.375865</v>
+        <v>4485333330.986308</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1479393926270449</v>
+        <v>0.1658187950491936</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02574408169366153</v>
+        <v>0.01945053984452084</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1843392270.277598</v>
+        <v>1876820467.041961</v>
       </c>
       <c r="F58" t="n">
-        <v>0.18468379611034</v>
+        <v>0.1417136882062713</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03973863093700419</v>
+        <v>0.03231292049001906</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3790771821.015825</v>
+        <v>4332188168.235771</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09277077903757999</v>
+        <v>0.1205368620208118</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04194060676024715</v>
+        <v>0.04251131398876732</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3437023266.764403</v>
+        <v>2421296521.121813</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1495968711484229</v>
+        <v>0.1443682917652069</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02933844068170852</v>
+        <v>0.02821190501694489</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3372080317.822114</v>
+        <v>3366441726.597384</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1696814354512803</v>
+        <v>0.1495266472295717</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0329153388273464</v>
+        <v>0.0244199563837006</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2108709815.247225</v>
+        <v>1621924447.52192</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1324120354953975</v>
+        <v>0.1508567555548045</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04806318469336315</v>
+        <v>0.03625063238540319</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5109907665.440434</v>
+        <v>4104027448.111364</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09984583025138857</v>
+        <v>0.0863900334645492</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04536462884937326</v>
+        <v>0.03741309801571672</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4273419840.06177</v>
+        <v>4795871772.505494</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1495778062224812</v>
+        <v>0.1228381914463866</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02212223549568923</v>
+        <v>0.03116224822385013</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4479055299.723386</v>
+        <v>6006285817.88386</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1225535614274143</v>
+        <v>0.1057521704561786</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02688904573584976</v>
+        <v>0.03116262364553108</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4012973254.762078</v>
+        <v>3923685813.584859</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1313400434064516</v>
+        <v>0.1504346156477714</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05121520496314989</v>
+        <v>0.04769706089619187</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3219650921.005772</v>
+        <v>2482189389.043142</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08522224781963379</v>
+        <v>0.07881485538062222</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04969003432325535</v>
+        <v>0.0431995697731537</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5543721540.924008</v>
+        <v>4744940368.758389</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1259146116096487</v>
+        <v>0.1439093520515037</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03727707219582871</v>
+        <v>0.04059722101512409</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1552001937.322998</v>
+        <v>2145539433.926787</v>
       </c>
       <c r="F69" t="n">
-        <v>0.127683221677858</v>
+        <v>0.1111762670631204</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04687274653404953</v>
+        <v>0.05424481841197228</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3666449124.430873</v>
+        <v>3634952141.177284</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07639115603833888</v>
+        <v>0.08925026802089636</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0335961433494995</v>
+        <v>0.04227486632228123</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4378158093.89212</v>
+        <v>4830655283.646493</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1816482435220278</v>
+        <v>0.1289799374410111</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0297786360119386</v>
+        <v>0.03287778734670656</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2139120204.474285</v>
+        <v>1525827074.047568</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06800387094012705</v>
+        <v>0.1000384488198592</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05237999603326535</v>
+        <v>0.04890696088423614</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2785496658.949883</v>
+        <v>2432624796.419034</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08165070697858962</v>
+        <v>0.1015655461958711</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04569460649252585</v>
+        <v>0.05134867530071818</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2478089952.767688</v>
+        <v>3922593532.834865</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1728724984284907</v>
+        <v>0.155263380517793</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02537436814386171</v>
+        <v>0.03548169570994868</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1975047144.175858</v>
+        <v>1914067013.688953</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1527416263809126</v>
+        <v>0.1099934154611308</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02624042409933793</v>
+        <v>0.02493655485886098</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3991177370.202024</v>
+        <v>4883069543.796999</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1121239144251335</v>
+        <v>0.096621184835811</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02662446743612999</v>
+        <v>0.03291654381829572</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1983804299.287942</v>
+        <v>1672611753.837559</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1326148990866098</v>
+        <v>0.1237917356382295</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0242941161533827</v>
+        <v>0.03096895789564117</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3141286709.824951</v>
+        <v>3426587088.86032</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08354918810474972</v>
+        <v>0.09767940568403223</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04480039462871126</v>
+        <v>0.05247476972806119</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1539584806.071885</v>
+        <v>1680021607.642538</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1190865025921143</v>
+        <v>0.1258979028327504</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03863389231279334</v>
+        <v>0.02877299203929121</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5501672498.282662</v>
+        <v>4376862995.746339</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1008847819599785</v>
+        <v>0.07034681080729194</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03154669618564468</v>
+        <v>0.03781158536512056</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5049886142.462753</v>
+        <v>4076002111.765329</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08320881624332765</v>
+        <v>0.09928299920974355</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0200257311651863</v>
+        <v>0.02639675789423343</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4030302769.273076</v>
+        <v>5616339221.478963</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1351878709758848</v>
+        <v>0.1503603246653168</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02745413081961382</v>
+        <v>0.02293749907713703</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1540452897.785721</v>
+        <v>1587193430.107018</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1041991378023235</v>
+        <v>0.1367398971877695</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03000019868405525</v>
+        <v>0.03067436381633232</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2412453142.878844</v>
+        <v>1672909893.606395</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09532820632304013</v>
+        <v>0.1160726504349204</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03817194974788531</v>
+        <v>0.04397833168458724</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2535100774.318328</v>
+        <v>2714978807.926046</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1327807326780158</v>
+        <v>0.1281912665217441</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04242199430374896</v>
+        <v>0.04564579698377488</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1853023750.088287</v>
+        <v>2613765927.658884</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1321161421837625</v>
+        <v>0.116934220959875</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0267419051601612</v>
+        <v>0.02033926101521112</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1198460768.218296</v>
+        <v>1086462335.623353</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1539295281107495</v>
+        <v>0.1389318775198461</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04230346075713822</v>
+        <v>0.03928524799069206</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2523071648.14911</v>
+        <v>2535103861.281515</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1249896090379923</v>
+        <v>0.1685219833497962</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02661230707519566</v>
+        <v>0.03612980445065542</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2373137668.630997</v>
+        <v>2262312149.194363</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1529252240530827</v>
+        <v>0.1547948697419976</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03493364462808876</v>
+        <v>0.02605394097057307</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1856692454.965727</v>
+        <v>1688153802.526014</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1350551911145987</v>
+        <v>0.1293835981867953</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03490742969868622</v>
+        <v>0.04740768276391644</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1644890695.974503</v>
+        <v>1731250571.065765</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1908889891997468</v>
+        <v>0.1502198266309088</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04630148946621987</v>
+        <v>0.05845704365242612</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2147911910.216494</v>
+        <v>2274481015.865839</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09281525634022551</v>
+        <v>0.09876576261741896</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03406153890645931</v>
+        <v>0.03016515213059211</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4086270396.138376</v>
+        <v>4781939299.897681</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1061016133382681</v>
+        <v>0.09817767392801252</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03677085471048934</v>
+        <v>0.05060629550498745</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2438144721.306429</v>
+        <v>2409721197.448689</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1287708269075588</v>
+        <v>0.1682578261433416</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03313986062105265</v>
+        <v>0.03622860621804899</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3165132659.352898</v>
+        <v>2269929075.78244</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1207755852847995</v>
+        <v>0.1118650289858292</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03304044527605522</v>
+        <v>0.0333788862398392</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1941826310.629022</v>
+        <v>1963245070.716413</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1334421670993866</v>
+        <v>0.1108702238116068</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03082457787024019</v>
+        <v>0.03853281604200313</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3655545819.783182</v>
+        <v>4978345919.693735</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1631542910991968</v>
+        <v>0.1215471324777475</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01911222569231842</v>
+        <v>0.02281966088225149</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2847108169.331144</v>
+        <v>2399255272.652458</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1235333877248232</v>
+        <v>0.1269217843183831</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03283925134299717</v>
+        <v>0.02031037237393477</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2299040179.418684</v>
+        <v>2230388242.46731</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1404914111195308</v>
+        <v>0.1480083774423643</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03270253849997738</v>
+        <v>0.02917509891088597</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3731740445.165048</v>
+        <v>3815998869.938284</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1454076619990573</v>
+        <v>0.1245605947030753</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01705911229749055</v>
+        <v>0.02103233630554707</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2755878735.592688</v>
+        <v>2897669443.991329</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1890891180304844</v>
+        <v>0.145721973406765</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05370579844521108</v>
+        <v>0.04060634353846452</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_59.xlsx
+++ b/output/fit_clients/fit_round_59.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1926777895.395393</v>
+        <v>1907968698.387002</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08115998974636555</v>
+        <v>0.1145416181128109</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0367823217072358</v>
+        <v>0.03584127410456617</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2138435392.031507</v>
+        <v>1964705973.52466</v>
       </c>
       <c r="F3" t="n">
-        <v>0.178162203054623</v>
+        <v>0.1774594855783032</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04935032508335004</v>
+        <v>0.03603548825224857</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3896514891.881467</v>
+        <v>4249883776.811363</v>
       </c>
       <c r="F4" t="n">
-        <v>0.114895219300969</v>
+        <v>0.1453837579577402</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03167148789581535</v>
+        <v>0.02370234841461471</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>42</v>
+      </c>
+      <c r="J4" t="n">
+        <v>59</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,16 +606,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2608320702.361525</v>
+        <v>2946609726.750245</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07488352928447041</v>
+        <v>0.1010079414450597</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0366367797711591</v>
+        <v>0.05024376951518907</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>27</v>
+      </c>
+      <c r="J5" t="n">
+        <v>58</v>
+      </c>
+      <c r="K5" t="n">
+        <v>131.440880114069</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1944736138.321269</v>
+        <v>2016164790.104561</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08983659001004225</v>
+        <v>0.127942329586593</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05385208626697999</v>
+        <v>0.051489245739384</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2269772869.294105</v>
+        <v>2570129985.469993</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08457295359333272</v>
+        <v>0.06993040637320523</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04835518506901914</v>
+        <v>0.03518707312666042</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2979022600.759228</v>
+        <v>3679765458.188999</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1472890261354918</v>
+        <v>0.1628840029854915</v>
       </c>
       <c r="G8" t="n">
-        <v>0.029278230275317</v>
+        <v>0.03233921407580083</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>14</v>
+      </c>
+      <c r="J8" t="n">
+        <v>59</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1674507149.177578</v>
+        <v>2145825188.36182</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1895294038589806</v>
+        <v>0.1376616589158642</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02987756005363971</v>
+        <v>0.03621806998223877</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4620257263.854613</v>
+        <v>4728047022.462042</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1485153466641623</v>
+        <v>0.2057714777248178</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03600438845239956</v>
+        <v>0.04606042222671649</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>55</v>
+      </c>
+      <c r="J10" t="n">
+        <v>59</v>
+      </c>
+      <c r="K10" t="n">
+        <v>219.5529778995016</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3870361462.978479</v>
+        <v>3706948168.780224</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1433973779394743</v>
+        <v>0.1563399524434434</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03019842260640493</v>
+        <v>0.03516445721556966</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>26</v>
+      </c>
+      <c r="J11" t="n">
+        <v>59</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2353178408.294309</v>
+        <v>2331077666.534692</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1242670175667956</v>
+        <v>0.1669230685860348</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0462470687982275</v>
+        <v>0.04057469368587621</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,17 +890,24 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4888446499.132773</v>
+        <v>4814658299.748619</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08090847571105171</v>
+        <v>0.07357671078643287</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02806114898485428</v>
+        <v>0.02312819235260034</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>29</v>
+      </c>
+      <c r="J13" t="n">
+        <v>59</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2371209311.771887</v>
+        <v>2388473812.18328</v>
       </c>
       <c r="F14" t="n">
-        <v>0.124147555573022</v>
+        <v>0.128389339249001</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03110986580274723</v>
+        <v>0.03910695278294612</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>11</v>
+      </c>
+      <c r="J14" t="n">
+        <v>56</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1821306581.233149</v>
+        <v>1289988478.977564</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08784202901729919</v>
+        <v>0.07750273460152782</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04139082979333304</v>
+        <v>0.04492960012337298</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1874018863.943969</v>
+        <v>1946483423.901439</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07455244038877505</v>
+        <v>0.09307433127051841</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04965711475854897</v>
+        <v>0.04662439119276705</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1024,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4114868055.725669</v>
+        <v>3554787976.512701</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1579277160504183</v>
+        <v>0.1243336392438769</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05269661537284109</v>
+        <v>0.04164725129467732</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>28</v>
+      </c>
+      <c r="J17" t="n">
+        <v>59</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,22 +1059,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3018515305.898188</v>
+        <v>3447278090.864769</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1164200303135385</v>
+        <v>0.1351143846477009</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03449960483889537</v>
+        <v>0.0343780407453395</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>14</v>
+      </c>
+      <c r="J18" t="n">
+        <v>58</v>
+      </c>
+      <c r="K18" t="n">
+        <v>164.4902481454291</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1055602927.499102</v>
+        <v>925234415.3631071</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1780983760634899</v>
+        <v>0.1231547138218092</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01704021833897989</v>
+        <v>0.02724207144823664</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1137,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2542332145.043427</v>
+        <v>2800949109.606791</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1249382508361517</v>
+        <v>0.1017643641639731</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03133202097573367</v>
+        <v>0.02017945079145496</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2125613936.407914</v>
+        <v>2731430103.609125</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07335329036648425</v>
+        <v>0.06888679651684493</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04347075542159964</v>
+        <v>0.04181772541644291</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3098221975.750883</v>
+        <v>3236978628.243935</v>
       </c>
       <c r="F22" t="n">
-        <v>0.131637487248733</v>
+        <v>0.1133823241771963</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05356852164545899</v>
+        <v>0.05330391990429616</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>15</v>
+      </c>
+      <c r="J22" t="n">
+        <v>57</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1242,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>974278655.4264547</v>
+        <v>1546514296.662731</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1698850761121452</v>
+        <v>0.1470012455867659</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04534922275400462</v>
+        <v>0.04895411575680556</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1271,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3339351156.141752</v>
+        <v>3268951981.152692</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1502098206084541</v>
+        <v>0.09625072344811887</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02954877641652544</v>
+        <v>0.02452961589683736</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>18</v>
+      </c>
+      <c r="J24" t="n">
+        <v>57</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1290178488.070993</v>
+        <v>1100912011.09472</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09075457118921244</v>
+        <v>0.08778545979194533</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02454484941424098</v>
+        <v>0.02934057018506389</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1182202038.610777</v>
+        <v>1018378455.297128</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1225414726773175</v>
+        <v>0.1074469900811896</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03660581339667819</v>
+        <v>0.03266605414109693</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1382,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3314197911.776625</v>
+        <v>3611966822.69192</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1161554847506245</v>
+        <v>0.1184173462745221</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02569469169733155</v>
+        <v>0.01712692450132638</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>23</v>
+      </c>
+      <c r="J27" t="n">
+        <v>58</v>
+      </c>
+      <c r="K27" t="n">
+        <v>151.9809492974555</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3112835323.91201</v>
+        <v>3085627454.746164</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09500282932210331</v>
+        <v>0.1350076441654903</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03745709438421467</v>
+        <v>0.0398957233470512</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>15</v>
+      </c>
+      <c r="J28" t="n">
+        <v>51</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4231313371.801096</v>
+        <v>5297793847.06953</v>
       </c>
       <c r="F29" t="n">
-        <v>0.132508955729438</v>
+        <v>0.1200918241958551</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04294552847065539</v>
+        <v>0.03729734923317191</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>54</v>
+      </c>
+      <c r="J29" t="n">
+        <v>59</v>
+      </c>
+      <c r="K29" t="n">
+        <v>227.8988324225699</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1491,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1860847872.642712</v>
+        <v>2071180147.776105</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1392423651862373</v>
+        <v>0.09614473483986152</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02431637772518085</v>
+        <v>0.037324082641024</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1363207048.453681</v>
+        <v>1421069334.49518</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09514318804153567</v>
+        <v>0.09487176149632949</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04492325257439549</v>
+        <v>0.03836844209450054</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1149408274.080964</v>
+        <v>1898269233.864892</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1199821083640702</v>
+        <v>0.08232448562347332</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03149534210448036</v>
+        <v>0.02875787523695955</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2466648565.236812</v>
+        <v>2248952054.172663</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1866816450866589</v>
+        <v>0.1435233148765096</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05024717084556522</v>
+        <v>0.04090916193083318</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1179583067.448669</v>
+        <v>1303725083.559051</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0808567125594831</v>
+        <v>0.1116185267134373</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02823672444465773</v>
+        <v>0.01796619657203372</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1026181247.510594</v>
+        <v>1228202534.903131</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08455773423436153</v>
+        <v>0.0739798418514539</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03135208915836273</v>
+        <v>0.04099882696124484</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2674413719.469317</v>
+        <v>3014158667.133076</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1154918586368733</v>
+        <v>0.1211973479705157</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02481420437023919</v>
+        <v>0.02049710456669866</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2415515965.892952</v>
+        <v>2012442915.495141</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08998118713416844</v>
+        <v>0.08602814203550493</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04095643782430653</v>
+        <v>0.03871558769028571</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1771,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1983071024.765491</v>
+        <v>1553946424.380416</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1101113427358616</v>
+        <v>0.1098460906594796</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02982755606868419</v>
+        <v>0.0289463797588795</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1771485605.023432</v>
+        <v>1710109390.585233</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1306006378340928</v>
+        <v>0.1361137936793774</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02765472091384115</v>
+        <v>0.02870176533664451</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1700047029.75063</v>
+        <v>1149325829.372562</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1020124795969298</v>
+        <v>0.1594130356621492</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05026292092678799</v>
+        <v>0.04420410570682405</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2064977111.426929</v>
+        <v>2117402653.535937</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1402775257848832</v>
+        <v>0.1450534554402591</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03968131979862361</v>
+        <v>0.03492040198833941</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1905,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3136915833.811805</v>
+        <v>3465695604.572639</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09494890240554886</v>
+        <v>0.08459003184845805</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02972153885052646</v>
+        <v>0.02837810170096271</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>22</v>
+      </c>
+      <c r="J42" t="n">
+        <v>58</v>
+      </c>
+      <c r="K42" t="n">
+        <v>167.1605383649261</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2398826954.401472</v>
+        <v>2491463445.025552</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1310241270947034</v>
+        <v>0.1697725109489376</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01656272061256815</v>
+        <v>0.02582922943616925</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1983,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1429608864.881522</v>
+        <v>1919763950.610133</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08399531140091961</v>
+        <v>0.07480456485918786</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02866922264401063</v>
+        <v>0.02928855996020767</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2384325444.007655</v>
+        <v>2044495120.426608</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1232014942304675</v>
+        <v>0.1521592265701852</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05519250885643934</v>
+        <v>0.0474640285084089</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4815297976.209096</v>
+        <v>4857001786.945105</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1579039076372065</v>
+        <v>0.1482300397336789</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04718663769441778</v>
+        <v>0.04201711128028546</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>35</v>
+      </c>
+      <c r="J46" t="n">
+        <v>58</v>
+      </c>
+      <c r="K46" t="n">
+        <v>195.2696325598167</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5062482500.668844</v>
+        <v>5183084040.238647</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1297107441608685</v>
+        <v>0.190100385876176</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04008769989887308</v>
+        <v>0.05863183245965709</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>25</v>
+      </c>
+      <c r="J47" t="n">
+        <v>59</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2119,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3804726283.196427</v>
+        <v>4525350073.789402</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1069856011230156</v>
+        <v>0.07482119692557718</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0381016284046292</v>
+        <v>0.03279452625992117</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>20</v>
+      </c>
+      <c r="J48" t="n">
+        <v>59</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1680958295.585888</v>
+        <v>1473582877.284399</v>
       </c>
       <c r="F49" t="n">
-        <v>0.159813896283777</v>
+        <v>0.1923651106478136</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03920441569713748</v>
+        <v>0.03671420414105028</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2189,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2754343532.505664</v>
+        <v>3160147827.898499</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1717368938872728</v>
+        <v>0.1499158431048942</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03887698084407796</v>
+        <v>0.04442637429615603</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>21</v>
+      </c>
+      <c r="J50" t="n">
+        <v>58</v>
+      </c>
+      <c r="K50" t="n">
+        <v>141.5647388894368</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1333758109.853235</v>
+        <v>1547625068.234236</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1318325122622712</v>
+        <v>0.1458928314312136</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03938151197755888</v>
+        <v>0.03281729886670548</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3408647077.822655</v>
+        <v>3726403013.45995</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09039776598482864</v>
+        <v>0.128440638484979</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04172335047680989</v>
+        <v>0.04524956947152724</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>47</v>
+      </c>
+      <c r="J52" t="n">
+        <v>59</v>
+      </c>
+      <c r="K52" t="n">
+        <v>207.7658104145044</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2304,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2827109264.547554</v>
+        <v>3452166678.400889</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2003964841605116</v>
+        <v>0.1828617351385566</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03515783854574024</v>
+        <v>0.0247314684434397</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>7</v>
+      </c>
+      <c r="J53" t="n">
+        <v>59</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2339,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4352232553.695406</v>
+        <v>3747776132.931034</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1026061897536438</v>
+        <v>0.1372015449652482</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04318844094412645</v>
+        <v>0.03443848968971912</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>26</v>
+      </c>
+      <c r="J54" t="n">
+        <v>58</v>
+      </c>
+      <c r="K54" t="n">
+        <v>193.9544502173993</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +2376,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3045392467.167248</v>
+        <v>4354113592.700877</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1907668892910308</v>
+        <v>0.1900035283935166</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03010006481315716</v>
+        <v>0.02866516805216484</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>27</v>
+      </c>
+      <c r="J55" t="n">
+        <v>58</v>
+      </c>
+      <c r="K55" t="n">
+        <v>173.5696885035165</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1624562277.736428</v>
+        <v>1345852024.138574</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1577671841627468</v>
+        <v>0.1384451273000189</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04695397162077253</v>
+        <v>0.0369422945708231</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2442,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4485333330.986308</v>
+        <v>3707315857.778992</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1658187950491936</v>
+        <v>0.1114559371964151</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01945053984452084</v>
+        <v>0.01947903346152319</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>22</v>
+      </c>
+      <c r="J57" t="n">
+        <v>58</v>
+      </c>
+      <c r="K57" t="n">
+        <v>184.3047851918483</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2479,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1876820467.041961</v>
+        <v>1197046464.962083</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1417136882062713</v>
+        <v>0.1289807938252344</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03231292049001906</v>
+        <v>0.03980571876870327</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2514,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4332188168.235771</v>
+        <v>5031401808.279209</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1205368620208118</v>
+        <v>0.1235158553489517</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04251131398876732</v>
+        <v>0.04865397935591507</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>28</v>
+      </c>
+      <c r="J59" t="n">
+        <v>59</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2421296521.121813</v>
+        <v>3171808018.200494</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1443682917652069</v>
+        <v>0.184925318561751</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02821190501694489</v>
+        <v>0.02869420183189991</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>8</v>
+      </c>
+      <c r="J60" t="n">
+        <v>52</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3366441726.597384</v>
+        <v>3282182354.423457</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1495266472295717</v>
+        <v>0.1752739341137141</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0244199563837006</v>
+        <v>0.02975799326549586</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1621924447.52192</v>
+        <v>1904057846.549662</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1508567555548045</v>
+        <v>0.1679711281845526</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03625063238540319</v>
+        <v>0.04794591804381475</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2660,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4104027448.111364</v>
+        <v>4855544023.633046</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0863900334645492</v>
+        <v>0.1070884232142552</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03741309801571672</v>
+        <v>0.04665345694737243</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>29</v>
+      </c>
+      <c r="J63" t="n">
+        <v>58</v>
+      </c>
+      <c r="K63" t="n">
+        <v>180.8303700605771</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2691,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4795871772.505494</v>
+        <v>3528186775.847653</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1228381914463866</v>
+        <v>0.1778876826097847</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03116224822385013</v>
+        <v>0.02430916341813424</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>29</v>
+      </c>
+      <c r="J64" t="n">
+        <v>58</v>
+      </c>
+      <c r="K64" t="n">
+        <v>166.6799509503521</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2728,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>6006285817.88386</v>
+        <v>5404955430.569201</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1057521704561786</v>
+        <v>0.1322922454219967</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03116262364553108</v>
+        <v>0.02972318504835542</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>46</v>
+      </c>
+      <c r="J65" t="n">
+        <v>59</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2763,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3923685813.584859</v>
+        <v>3797673947.191965</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1504346156477714</v>
+        <v>0.1002855971289216</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04769706089619187</v>
+        <v>0.03223065892042919</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>29</v>
+      </c>
+      <c r="J66" t="n">
+        <v>58</v>
+      </c>
+      <c r="K66" t="n">
+        <v>183.3113829532076</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2482189389.043142</v>
+        <v>2406344744.522689</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07881485538062222</v>
+        <v>0.08424159172882226</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0431995697731537</v>
+        <v>0.04832473885551085</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2835,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4744940368.758389</v>
+        <v>4351284336.892203</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1439093520515037</v>
+        <v>0.1379341676850243</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04059722101512409</v>
+        <v>0.03438674754947817</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>29</v>
+      </c>
+      <c r="J68" t="n">
+        <v>59</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2145539433.926787</v>
+        <v>2237359300.749973</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1111762670631204</v>
+        <v>0.1675492563773617</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05424481841197228</v>
+        <v>0.05093055643921095</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2905,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3634952141.177284</v>
+        <v>2801278587.515957</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08925026802089636</v>
+        <v>0.07979243711610537</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04227486632228123</v>
+        <v>0.03525159759338724</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>7</v>
+      </c>
+      <c r="J70" t="n">
+        <v>58</v>
+      </c>
+      <c r="K70" t="n">
+        <v>103.15186741504</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2942,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4830655283.646493</v>
+        <v>5582382754.345429</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1289799374410111</v>
+        <v>0.1385848883419493</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03287778734670656</v>
+        <v>0.02839394113980375</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>48</v>
+      </c>
+      <c r="J71" t="n">
+        <v>59</v>
+      </c>
+      <c r="K71" t="n">
+        <v>199.5093843024559</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2985,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1525827074.047568</v>
+        <v>2071803611.428124</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1000384488198592</v>
+        <v>0.09529632929353067</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04890696088423614</v>
+        <v>0.03638066185091947</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3014,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2432624796.419034</v>
+        <v>3051704664.784329</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1015655461958711</v>
+        <v>0.09411162916515492</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05134867530071818</v>
+        <v>0.05163077720793947</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>4</v>
+      </c>
+      <c r="J73" t="n">
+        <v>54</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3049,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3922593532.834865</v>
+        <v>3424046498.031244</v>
       </c>
       <c r="F74" t="n">
-        <v>0.155263380517793</v>
+        <v>0.1310627354972144</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03548169570994868</v>
+        <v>0.02152371872622749</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>18</v>
+      </c>
+      <c r="J74" t="n">
+        <v>54</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1914067013.688953</v>
+        <v>1558307941.020092</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1099934154611308</v>
+        <v>0.1286339825937506</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02493655485886098</v>
+        <v>0.02967945071106833</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3125,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4883069543.796999</v>
+        <v>5062216274.984165</v>
       </c>
       <c r="F76" t="n">
-        <v>0.096621184835811</v>
+        <v>0.09329161166235865</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03291654381829572</v>
+        <v>0.02079010137281422</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>27</v>
+      </c>
+      <c r="J76" t="n">
+        <v>59</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3160,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1672611753.837559</v>
+        <v>2132052687.724246</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1237917356382295</v>
+        <v>0.1633465889046802</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03096895789564117</v>
+        <v>0.02588197940355321</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3195,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3426587088.86032</v>
+        <v>3104534558.719256</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09767940568403223</v>
+        <v>0.1165782260974535</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05247476972806119</v>
+        <v>0.05479284030923158</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>25</v>
+      </c>
+      <c r="J78" t="n">
+        <v>56</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3230,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1680021607.642538</v>
+        <v>1258894292.259451</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1258979028327504</v>
+        <v>0.1217544649357498</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02877299203929121</v>
+        <v>0.03228826063366971</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4376862995.746339</v>
+        <v>4230362095.889327</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07034681080729194</v>
+        <v>0.09115325203777237</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03781158536512056</v>
+        <v>0.03095842649854373</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>28</v>
+      </c>
+      <c r="J80" t="n">
+        <v>59</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4076002111.765329</v>
+        <v>4155377608.34089</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09928299920974355</v>
+        <v>0.1132200312488207</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02639675789423343</v>
+        <v>0.03230898100999072</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>26</v>
+      </c>
+      <c r="J81" t="n">
+        <v>59</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5616339221.478963</v>
+        <v>5700194277.357197</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1503603246653168</v>
+        <v>0.1393008688549018</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02293749907713703</v>
+        <v>0.02949740867728189</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>34</v>
+      </c>
+      <c r="J82" t="n">
+        <v>59</v>
+      </c>
+      <c r="K82" t="n">
+        <v>203.4664095440247</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3372,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1587193430.107018</v>
+        <v>2375800487.749315</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1367398971877695</v>
+        <v>0.1391421088236522</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03067436381633232</v>
+        <v>0.04520917410348239</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1672909893.606395</v>
+        <v>2500151328.310226</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1160726504349204</v>
+        <v>0.09755049279893878</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04397833168458724</v>
+        <v>0.04219991399671561</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2714978807.926046</v>
+        <v>3359184829.776872</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1281912665217441</v>
+        <v>0.1742026281483085</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04564579698377488</v>
+        <v>0.03701362136023403</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>10</v>
+      </c>
+      <c r="J85" t="n">
+        <v>52</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3477,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2613765927.658884</v>
+        <v>2522124962.525054</v>
       </c>
       <c r="F86" t="n">
-        <v>0.116934220959875</v>
+        <v>0.1268694841593569</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02033926101521112</v>
+        <v>0.02363108885320659</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1086462335.623353</v>
+        <v>911069469.7585236</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1389318775198461</v>
+        <v>0.1280808780378817</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03928524799069206</v>
+        <v>0.03879935894396389</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2535103861.281515</v>
+        <v>2370773138.072494</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1685219833497962</v>
+        <v>0.1596563479166894</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03612980445065542</v>
+        <v>0.03992372259460372</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>8</v>
+      </c>
+      <c r="J88" t="n">
+        <v>55</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2262312149.194363</v>
+        <v>2172339677.713297</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1547948697419976</v>
+        <v>0.1250558379288508</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02605394097057307</v>
+        <v>0.03846927185697982</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>5</v>
+      </c>
+      <c r="J89" t="n">
+        <v>40</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1688153802.526014</v>
+        <v>2105805676.622399</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1293835981867953</v>
+        <v>0.1176063724795433</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04740768276391644</v>
+        <v>0.03893957829109039</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1731250571.065765</v>
+        <v>2030248500.30745</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1502198266309088</v>
+        <v>0.1260552719519111</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05845704365242612</v>
+        <v>0.0552475811203581</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2274481015.865839</v>
+        <v>2031646819.531564</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09876576261741896</v>
+        <v>0.07435489821384557</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03016515213059211</v>
+        <v>0.04254792098137907</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4781939299.897681</v>
+        <v>3832285715.084199</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09817767392801252</v>
+        <v>0.1106231369630521</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05060629550498745</v>
+        <v>0.03426523798394816</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>26</v>
+      </c>
+      <c r="J93" t="n">
+        <v>58</v>
+      </c>
+      <c r="K93" t="n">
+        <v>180.9795953226356</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2409721197.448689</v>
+        <v>1994906478.151479</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1682578261433416</v>
+        <v>0.1616365846520221</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03622860621804899</v>
+        <v>0.04180444010622433</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2269929075.78244</v>
+        <v>2404477857.176678</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1118650289858292</v>
+        <v>0.1220885830904576</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0333788862398392</v>
+        <v>0.04780814043151486</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3829,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1963245070.716413</v>
+        <v>1758598273.899015</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1108702238116068</v>
+        <v>0.1279226025540868</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03853281604200313</v>
+        <v>0.03722528755385301</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4978345919.693735</v>
+        <v>3691820568.449388</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1215471324777475</v>
+        <v>0.1687737938250299</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02281966088225149</v>
+        <v>0.02005306760957977</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>29</v>
+      </c>
+      <c r="J97" t="n">
+        <v>58</v>
+      </c>
+      <c r="K97" t="n">
+        <v>192.3288890833781</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3901,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2399255272.652458</v>
+        <v>3000674150.456426</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1269217843183831</v>
+        <v>0.1093387521351072</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02031037237393477</v>
+        <v>0.0260016154905192</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>14</v>
+      </c>
+      <c r="J98" t="n">
+        <v>57</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2230388242.46731</v>
+        <v>3134711712.504408</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1480083774423643</v>
+        <v>0.1225949488374253</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02917509891088597</v>
+        <v>0.02199068584503792</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3815998869.938284</v>
+        <v>4058986073.777876</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1245605947030753</v>
+        <v>0.121035722385117</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02103233630554707</v>
+        <v>0.02336243571097154</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>25</v>
+      </c>
+      <c r="J100" t="n">
+        <v>59</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2897669443.991329</v>
+        <v>3270320963.541009</v>
       </c>
       <c r="F101" t="n">
-        <v>0.145721973406765</v>
+        <v>0.1669918138507545</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04060634353846452</v>
+        <v>0.04888718035095565</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>3</v>
+      </c>
+      <c r="J101" t="n">
+        <v>48</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
